--- a/obfuscated/historicalcpi_P.xlsx
+++ b/obfuscated/historicalcpi_P.xlsx
@@ -707,154 +707,154 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1816.09</v>
+        <v>1746.1</v>
       </c>
       <c r="D2" t="n">
-        <v>2037.03</v>
+        <v>2338.75</v>
       </c>
       <c r="E2" t="n">
-        <v>2069.47</v>
+        <v>2271.16</v>
       </c>
       <c r="F2" t="n">
-        <v>1869.5</v>
+        <v>1725.62</v>
       </c>
       <c r="G2" t="n">
-        <v>1594.48</v>
+        <v>1967.52</v>
       </c>
       <c r="H2" t="n">
-        <v>2054.05</v>
+        <v>2161.9</v>
       </c>
       <c r="I2" t="n">
-        <v>2139.06</v>
+        <v>2117.25</v>
       </c>
       <c r="J2" t="n">
-        <v>2017.93</v>
+        <v>1803.82</v>
       </c>
       <c r="K2" t="n">
-        <v>2246.19</v>
+        <v>1894.82</v>
       </c>
       <c r="L2" t="n">
-        <v>1852.04</v>
+        <v>1974.16</v>
       </c>
       <c r="M2" t="n">
-        <v>1815.3</v>
+        <v>1795.85</v>
       </c>
       <c r="N2" t="n">
-        <v>2042.87</v>
+        <v>1981.91</v>
       </c>
       <c r="O2" t="n">
-        <v>2371.03</v>
+        <v>2052.38</v>
       </c>
       <c r="P2" t="n">
-        <v>1854.24</v>
+        <v>1732.19</v>
       </c>
       <c r="Q2" t="n">
-        <v>2118.65</v>
+        <v>1970.8</v>
       </c>
       <c r="R2" t="n">
-        <v>2272.87</v>
+        <v>2183.24</v>
       </c>
       <c r="S2" t="n">
-        <v>1693.46</v>
+        <v>2363.3</v>
       </c>
       <c r="T2" t="n">
-        <v>2262.64</v>
+        <v>1680.34</v>
       </c>
       <c r="U2" t="n">
-        <v>1628.39</v>
+        <v>2091.96</v>
       </c>
       <c r="V2" t="n">
-        <v>1749.48</v>
+        <v>2231.38</v>
       </c>
       <c r="W2" t="n">
-        <v>2281.53</v>
+        <v>1982.37</v>
       </c>
       <c r="X2" t="n">
-        <v>1667.66</v>
+        <v>1700.72</v>
       </c>
       <c r="Y2" t="n">
-        <v>2134.91</v>
+        <v>2341.67</v>
       </c>
       <c r="Z2" t="n">
-        <v>2156.08</v>
+        <v>1907.87</v>
       </c>
       <c r="AA2" t="n">
-        <v>2109.87</v>
+        <v>2329.27</v>
       </c>
       <c r="AB2" t="n">
-        <v>1864.92</v>
+        <v>2266.67</v>
       </c>
       <c r="AC2" t="n">
-        <v>2322.41</v>
+        <v>1699.23</v>
       </c>
       <c r="AD2" t="n">
-        <v>1694.25</v>
+        <v>1639.41</v>
       </c>
       <c r="AE2" t="n">
-        <v>2170.18</v>
+        <v>1810.58</v>
       </c>
       <c r="AF2" t="n">
-        <v>2244.33</v>
+        <v>2317.75</v>
       </c>
       <c r="AG2" t="n">
-        <v>1694.63</v>
+        <v>2263.34</v>
       </c>
       <c r="AH2" t="n">
-        <v>1614.51</v>
+        <v>2207.56</v>
       </c>
       <c r="AI2" t="n">
-        <v>2280.27</v>
+        <v>2188.87</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1971.5</v>
+        <v>2184.24</v>
       </c>
       <c r="AK2" t="n">
-        <v>1736.06</v>
+        <v>1743.48</v>
       </c>
       <c r="AL2" t="n">
-        <v>1798.19</v>
+        <v>2075.23</v>
       </c>
       <c r="AM2" t="n">
-        <v>1996.97</v>
+        <v>1642.86</v>
       </c>
       <c r="AN2" t="n">
-        <v>1804.18</v>
+        <v>2225.14</v>
       </c>
       <c r="AO2" t="n">
-        <v>1972.54</v>
+        <v>1744.76</v>
       </c>
       <c r="AP2" t="n">
-        <v>1712.39</v>
+        <v>2413.71</v>
       </c>
       <c r="AQ2" t="n">
-        <v>2121.87</v>
+        <v>2366.4</v>
       </c>
       <c r="AR2" t="n">
-        <v>1744.98</v>
+        <v>1645.41</v>
       </c>
       <c r="AS2" t="n">
-        <v>2191.15</v>
+        <v>1765.43</v>
       </c>
       <c r="AT2" t="n">
-        <v>1854.42</v>
+        <v>1712.62</v>
       </c>
       <c r="AU2" t="n">
-        <v>2319.28</v>
+        <v>1965.4</v>
       </c>
       <c r="AV2" t="n">
-        <v>1926.58</v>
+        <v>1957.87</v>
       </c>
       <c r="AW2" t="n">
-        <v>1785.16</v>
+        <v>2229.22</v>
       </c>
       <c r="AX2" t="n">
-        <v>2071.78</v>
+        <v>1781.1</v>
       </c>
       <c r="AY2" t="n">
-        <v>2155</v>
+        <v>2200.44</v>
       </c>
       <c r="AZ2" t="n">
-        <v>2233.86</v>
+        <v>1762.85</v>
       </c>
     </row>
     <row r="3">
@@ -864,157 +864,157 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14.72</v>
+        <v>15.49</v>
       </c>
       <c r="C3" t="n">
-        <v>6.98</v>
+        <v>8.44</v>
       </c>
       <c r="D3" t="n">
-        <v>2.48</v>
+        <v>2.45</v>
       </c>
       <c r="E3" t="n">
-        <v>5.97</v>
+        <v>7.35</v>
       </c>
       <c r="F3" t="n">
-        <v>11.8</v>
+        <v>10.65</v>
       </c>
       <c r="G3" t="n">
-        <v>11.68</v>
+        <v>11.3</v>
       </c>
       <c r="H3" t="n">
-        <v>7.51</v>
+        <v>10.21</v>
       </c>
       <c r="I3" t="n">
-        <v>7.57</v>
+        <v>6.72</v>
       </c>
       <c r="J3" t="n">
-        <v>3.43</v>
+        <v>4.03</v>
       </c>
       <c r="K3" t="n">
-        <v>1.96</v>
+        <v>2.14</v>
       </c>
       <c r="L3" t="n">
-        <v>3.75</v>
+        <v>4.27</v>
       </c>
       <c r="M3" t="n">
-        <v>2.11</v>
+        <v>2.12</v>
       </c>
       <c r="N3" t="n">
-        <v>3.56</v>
+        <v>3.09</v>
       </c>
       <c r="O3" t="n">
-        <v>3.36</v>
+        <v>4.91</v>
       </c>
       <c r="P3" t="n">
-        <v>3.57</v>
+        <v>4.82</v>
       </c>
       <c r="Q3" t="n">
-        <v>5.15</v>
+        <v>6.67</v>
       </c>
       <c r="R3" t="n">
-        <v>5.49</v>
+        <v>5.84</v>
       </c>
       <c r="S3" t="n">
-        <v>2.82</v>
+        <v>3.31</v>
       </c>
       <c r="T3" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="U3" t="n">
-        <v>1.83</v>
+        <v>2.15</v>
       </c>
       <c r="V3" t="n">
-        <v>2.44</v>
+        <v>2.65</v>
       </c>
       <c r="W3" t="n">
-        <v>3.21</v>
+        <v>2.96</v>
       </c>
       <c r="X3" t="n">
-        <v>3.4</v>
+        <v>2.81</v>
       </c>
       <c r="Y3" t="n">
-        <v>2.29</v>
+        <v>2.09</v>
       </c>
       <c r="Z3" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>5.31</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AQ3" t="n">
         <v>2.14</v>
       </c>
-      <c r="AA3" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>3.78</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="AG3" t="n">
+      <c r="AR3" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AU3" t="n">
         <v>1.97</v>
       </c>
-      <c r="AH3" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>1.52</v>
-      </c>
       <c r="AV3" t="n">
-        <v>3.77</v>
+        <v>3.44</v>
       </c>
       <c r="AW3" t="n">
-        <v>4.19</v>
+        <v>4.53</v>
       </c>
       <c r="AX3" t="n">
-        <v>8.199999999999999</v>
+        <v>9.970000000000001</v>
       </c>
       <c r="AY3" t="n">
-        <v>6.5</v>
+        <v>6.89</v>
       </c>
       <c r="AZ3" t="n">
-        <v>2.35</v>
+        <v>2.69</v>
       </c>
     </row>
     <row r="4">
@@ -1024,157 +1024,157 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10.3</v>
+        <v>13.19</v>
       </c>
       <c r="C4" t="n">
-        <v>10.63</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>6.99</v>
+        <v>5.66</v>
       </c>
       <c r="E4" t="n">
-        <v>6.18</v>
+        <v>8.619999999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>8.19</v>
+        <v>8.82</v>
       </c>
       <c r="G4" t="n">
-        <v>12.9</v>
+        <v>12.36</v>
       </c>
       <c r="H4" t="n">
-        <v>10.44</v>
+        <v>10.43</v>
       </c>
       <c r="I4" t="n">
-        <v>8.119999999999999</v>
+        <v>8.94</v>
       </c>
       <c r="J4" t="n">
-        <v>4.87</v>
+        <v>5.29</v>
       </c>
       <c r="K4" t="n">
-        <v>4.67</v>
+        <v>4.48</v>
       </c>
       <c r="L4" t="n">
-        <v>3.92</v>
+        <v>4.23</v>
       </c>
       <c r="M4" t="n">
-        <v>4.65</v>
+        <v>3.81</v>
       </c>
       <c r="N4" t="n">
-        <v>3.36</v>
+        <v>3.23</v>
       </c>
       <c r="O4" t="n">
-        <v>4.74</v>
+        <v>3.41</v>
       </c>
       <c r="P4" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="Q4" t="n">
-        <v>4.12</v>
+        <v>5.2</v>
       </c>
       <c r="R4" t="n">
-        <v>5.1</v>
+        <v>4.57</v>
       </c>
       <c r="S4" t="n">
-        <v>3.54</v>
+        <v>3.95</v>
       </c>
       <c r="T4" t="n">
-        <v>2.23</v>
+        <v>1.82</v>
       </c>
       <c r="U4" t="n">
-        <v>1.78</v>
+        <v>1.98</v>
       </c>
       <c r="V4" t="n">
-        <v>1.92</v>
+        <v>1.45</v>
       </c>
       <c r="W4" t="n">
-        <v>1.89</v>
+        <v>2.5</v>
       </c>
       <c r="X4" t="n">
-        <v>2.05</v>
+        <v>2.46</v>
       </c>
       <c r="Y4" t="n">
-        <v>2.47</v>
+        <v>2.56</v>
       </c>
       <c r="Z4" t="n">
-        <v>2.26</v>
+        <v>2.38</v>
       </c>
       <c r="AA4" t="n">
-        <v>3</v>
+        <v>2.32</v>
       </c>
       <c r="AB4" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="AC4" t="n">
-        <v>3.44</v>
+        <v>3.42</v>
       </c>
       <c r="AD4" t="n">
-        <v>2.91</v>
+        <v>2.69</v>
       </c>
       <c r="AE4" t="n">
-        <v>2.47</v>
+        <v>2.42</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.55</v>
+        <v>3.28</v>
       </c>
       <c r="AG4" t="n">
-        <v>2.67</v>
+        <v>3.67</v>
       </c>
       <c r="AH4" t="n">
-        <v>3.3</v>
+        <v>2.84</v>
       </c>
       <c r="AI4" t="n">
-        <v>3.03</v>
+        <v>4.27</v>
       </c>
       <c r="AJ4" t="n">
-        <v>5.16</v>
+        <v>3.66</v>
       </c>
       <c r="AK4" t="n">
-        <v>4.15</v>
+        <v>3.2</v>
       </c>
       <c r="AL4" t="n">
-        <v>1.5</v>
+        <v>1.09</v>
       </c>
       <c r="AM4" t="n">
-        <v>1.95</v>
+        <v>1.86</v>
       </c>
       <c r="AN4" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AP4" t="n">
         <v>2.66</v>
       </c>
-      <c r="AO4" t="n">
-        <v>2.41</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>1.93</v>
-      </c>
       <c r="AQ4" t="n">
-        <v>3.36</v>
+        <v>3.14</v>
       </c>
       <c r="AR4" t="n">
-        <v>2.73</v>
+        <v>2.74</v>
       </c>
       <c r="AS4" t="n">
-        <v>2.15</v>
+        <v>2.42</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.95</v>
+        <v>2.8</v>
       </c>
       <c r="AU4" t="n">
-        <v>3.31</v>
+        <v>2.6</v>
       </c>
       <c r="AV4" t="n">
-        <v>3.88</v>
+        <v>3.85</v>
       </c>
       <c r="AW4" t="n">
-        <v>4.63</v>
+        <v>5.29</v>
       </c>
       <c r="AX4" t="n">
-        <v>8.539999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="AY4" t="n">
-        <v>8.029999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="AZ4" t="n">
-        <v>3.51</v>
+        <v>4.13</v>
       </c>
     </row>
     <row r="5">
@@ -1184,157 +1184,157 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>14.79</v>
+        <v>17.82</v>
       </c>
       <c r="C5" t="n">
-        <v>7.96</v>
+        <v>9.390000000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>2.1</v>
+        <v>1.98</v>
       </c>
       <c r="E5" t="n">
-        <v>6.27</v>
+        <v>6.04</v>
       </c>
       <c r="F5" t="n">
-        <v>8.779999999999999</v>
+        <v>12.18</v>
       </c>
       <c r="G5" t="n">
-        <v>8.66</v>
+        <v>10.23</v>
       </c>
       <c r="H5" t="n">
-        <v>8.58</v>
+        <v>8.23</v>
       </c>
       <c r="I5" t="n">
-        <v>5.98</v>
+        <v>7.43</v>
       </c>
       <c r="J5" t="n">
-        <v>4.15</v>
+        <v>4.09</v>
       </c>
       <c r="K5" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="L5" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="N5" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O5" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="R5" t="n">
+        <v>6.77</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="V5" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="W5" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="X5" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>5.46</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>5.56</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AQ5" t="n">
         <v>1.03</v>
       </c>
-      <c r="L5" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="N5" t="n">
-        <v>3.39</v>
-      </c>
-      <c r="O5" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="P5" t="n">
-        <v>3.66</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>5.51</v>
-      </c>
-      <c r="R5" t="n">
-        <v>6.56</v>
-      </c>
-      <c r="S5" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="U5" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="V5" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="W5" t="n">
-        <v>3.13</v>
-      </c>
-      <c r="X5" t="n">
-        <v>3.62</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>3.31</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>6.12</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>4.64</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>1.1</v>
-      </c>
       <c r="AR5" t="n">
-        <v>-1.41</v>
+        <v>-1.21</v>
       </c>
       <c r="AS5" t="n">
-        <v>-0.22</v>
+        <v>-0.18</v>
       </c>
       <c r="AT5" t="n">
         <v>0.46</v>
       </c>
       <c r="AU5" t="n">
-        <v>0.73</v>
+        <v>0.77</v>
       </c>
       <c r="AV5" t="n">
-        <v>3.39</v>
+        <v>3.51</v>
       </c>
       <c r="AW5" t="n">
-        <v>3.56</v>
+        <v>3.19</v>
       </c>
       <c r="AX5" t="n">
-        <v>12.09</v>
+        <v>10.74</v>
       </c>
       <c r="AY5" t="n">
-        <v>5.26</v>
+        <v>5.49</v>
       </c>
       <c r="AZ5" t="n">
-        <v>1.3</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="6">
@@ -1344,157 +1344,157 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="C6" t="n">
-        <v>9.99</v>
+        <v>7.72</v>
       </c>
       <c r="D6" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-0.49</v>
+      </c>
+      <c r="F6" t="n">
+        <v>16.18</v>
+      </c>
+      <c r="G6" t="n">
+        <v>16.32</v>
+      </c>
+      <c r="H6" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="J6" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="K6" t="n">
+        <v>-0.71</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-0.44</v>
+      </c>
+      <c r="N6" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="O6" t="n">
+        <v>5.51</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="R6" t="n">
+        <v>6.29</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="T6" t="n">
+        <v>-0.83</v>
+      </c>
+      <c r="U6" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="W6" t="n">
         <v>0.8</v>
       </c>
-      <c r="E6" t="n">
-        <v>-0.65</v>
-      </c>
-      <c r="F6" t="n">
-        <v>19.18</v>
-      </c>
-      <c r="G6" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="H6" t="n">
-        <v>3.43</v>
-      </c>
-      <c r="I6" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3.54</v>
-      </c>
-      <c r="K6" t="n">
-        <v>-0.78</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="M6" t="n">
-        <v>-0.4</v>
-      </c>
-      <c r="N6" t="n">
-        <v>3.53</v>
-      </c>
-      <c r="O6" t="n">
-        <v>6.16</v>
-      </c>
-      <c r="P6" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="R6" t="n">
-        <v>7.09</v>
-      </c>
-      <c r="S6" t="n">
+      <c r="X6" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>6.28</v>
+      </c>
+      <c r="AG6" t="n">
         <v>2.25</v>
       </c>
-      <c r="T6" t="n">
-        <v>-0.84</v>
-      </c>
-      <c r="U6" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="X6" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>-0.78</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>4.68</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>7.26</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>2.09</v>
-      </c>
       <c r="AH6" t="n">
-        <v>0.7</v>
+        <v>0.83</v>
       </c>
       <c r="AI6" t="n">
-        <v>3.32</v>
+        <v>3.58</v>
       </c>
       <c r="AJ6" t="n">
-        <v>3.38</v>
+        <v>3.37</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.48</v>
+        <v>0.57</v>
       </c>
       <c r="AL6" t="n">
-        <v>2.05</v>
+        <v>1.76</v>
       </c>
       <c r="AM6" t="n">
-        <v>7.26</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.24</v>
+        <v>4.13</v>
       </c>
       <c r="AO6" t="n">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="AP6" t="n">
-        <v>7.82</v>
+        <v>8.24</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1.96</v>
+        <v>2.25</v>
       </c>
       <c r="AR6" t="n">
-        <v>-3.22</v>
+        <v>-3.41</v>
       </c>
       <c r="AS6" t="n">
-        <v>-0.11</v>
+        <v>-0.09</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AU6" t="n">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="AV6" t="n">
-        <v>6.37</v>
+        <v>7.02</v>
       </c>
       <c r="AW6" t="n">
-        <v>7.5</v>
+        <v>6.47</v>
       </c>
       <c r="AX6" t="n">
-        <v>10.85</v>
+        <v>7.72</v>
       </c>
       <c r="AY6" t="n">
-        <v>2.34</v>
+        <v>2.14</v>
       </c>
       <c r="AZ6" t="n">
-        <v>1.99</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="7">
@@ -1504,157 +1504,157 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.48</v>
+        <v>1.68</v>
       </c>
       <c r="C7" t="n">
-        <v>9.32</v>
+        <v>6.98</v>
       </c>
       <c r="D7" t="n">
-        <v>0.21</v>
+        <v>0.17</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.88</v>
+        <v>-2.34</v>
       </c>
       <c r="F7" t="n">
-        <v>22.3</v>
+        <v>16.87</v>
       </c>
       <c r="G7" t="n">
-        <v>19.67</v>
+        <v>13.76</v>
       </c>
       <c r="H7" t="n">
-        <v>2.92</v>
+        <v>3.05</v>
       </c>
       <c r="I7" t="n">
-        <v>3.8</v>
+        <v>3.05</v>
       </c>
       <c r="J7" t="n">
-        <v>3.96</v>
+        <v>5.64</v>
       </c>
       <c r="K7" t="n">
-        <v>-1.26</v>
+        <v>-1.37</v>
       </c>
       <c r="L7" t="n">
-        <v>0.28</v>
+        <v>0.36</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.83</v>
+        <v>-0.99</v>
       </c>
       <c r="N7" t="n">
-        <v>3.33</v>
+        <v>2.9</v>
       </c>
       <c r="O7" t="n">
-        <v>8.130000000000001</v>
+        <v>8.35</v>
       </c>
       <c r="P7" t="n">
-        <v>2.82</v>
+        <v>2.14</v>
       </c>
       <c r="Q7" t="n">
-        <v>4.57</v>
+        <v>3.93</v>
       </c>
       <c r="R7" t="n">
-        <v>9.57</v>
+        <v>12.01</v>
       </c>
       <c r="S7" t="n">
-        <v>2.87</v>
+        <v>3.27</v>
       </c>
       <c r="T7" t="n">
-        <v>-1.35</v>
+        <v>-1.15</v>
       </c>
       <c r="U7" t="n">
-        <v>2.76</v>
+        <v>2.5</v>
       </c>
       <c r="V7" t="n">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="W7" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="X7" t="n">
         <v>3.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>2.43</v>
+        <v>2.77</v>
       </c>
       <c r="Z7" t="n">
-        <v>-1.55</v>
+        <v>-1.8</v>
       </c>
       <c r="AA7" t="n">
         <v>0.47</v>
       </c>
       <c r="AB7" t="n">
-        <v>6.9</v>
+        <v>4.94</v>
       </c>
       <c r="AC7" t="n">
-        <v>6.56</v>
+        <v>4.86</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.49</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AE7" t="n">
-        <v>4.78</v>
+        <v>6.07</v>
       </c>
       <c r="AF7" t="n">
-        <v>6.78</v>
+        <v>10.03</v>
       </c>
       <c r="AG7" t="n">
-        <v>1.87</v>
+        <v>2.1</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.72</v>
+        <v>0.65</v>
       </c>
       <c r="AI7" t="n">
-        <v>3.36</v>
+        <v>3.34</v>
       </c>
       <c r="AJ7" t="n">
-        <v>4.17</v>
+        <v>3.11</v>
       </c>
       <c r="AK7" t="n">
-        <v>-0.55</v>
+        <v>-0.54</v>
       </c>
       <c r="AL7" t="n">
-        <v>2.98</v>
+        <v>2.79</v>
       </c>
       <c r="AM7" t="n">
-        <v>10.09</v>
+        <v>8.48</v>
       </c>
       <c r="AN7" t="n">
-        <v>4.03</v>
+        <v>4.01</v>
       </c>
       <c r="AO7" t="n">
-        <v>1.34</v>
+        <v>1.14</v>
       </c>
       <c r="AP7" t="n">
-        <v>7.85</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="AQ7" t="n">
-        <v>2.42</v>
+        <v>3.13</v>
       </c>
       <c r="AR7" t="n">
-        <v>-3.93</v>
+        <v>-4.88</v>
       </c>
       <c r="AS7" t="n">
-        <v>-0.72</v>
+        <v>-0.71</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.47</v>
+        <v>0.35</v>
       </c>
       <c r="AU7" t="n">
-        <v>1.07</v>
+        <v>1.41</v>
       </c>
       <c r="AV7" t="n">
-        <v>8.77</v>
+        <v>6.45</v>
       </c>
       <c r="AW7" t="n">
-        <v>7.22</v>
+        <v>8.98</v>
       </c>
       <c r="AX7" t="n">
-        <v>7.89</v>
+        <v>9.81</v>
       </c>
       <c r="AY7" t="n">
         <v>1.7</v>
       </c>
       <c r="AZ7" t="n">
-        <v>2.51</v>
+        <v>2.39</v>
       </c>
     </row>
     <row r="8">
@@ -1664,157 +1664,157 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.24</v>
+        <v>2.6</v>
       </c>
       <c r="C8" t="n">
-        <v>0.96</v>
+        <v>1.18</v>
       </c>
       <c r="D8" t="n">
-        <v>-2.78</v>
+        <v>-3.39</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.8</v>
+        <v>-0.65</v>
       </c>
       <c r="F8" t="n">
-        <v>21.8</v>
+        <v>26.25</v>
       </c>
       <c r="G8" t="n">
-        <v>25.28</v>
+        <v>31.56</v>
       </c>
       <c r="H8" t="n">
-        <v>5.38</v>
+        <v>6.22</v>
       </c>
       <c r="I8" t="n">
-        <v>0.76</v>
+        <v>0.66</v>
       </c>
       <c r="J8" t="n">
-        <v>1.14</v>
+        <v>1.66</v>
       </c>
       <c r="K8" t="n">
-        <v>-1.75</v>
+        <v>-1.27</v>
       </c>
       <c r="L8" t="n">
-        <v>1.43</v>
+        <v>1.16</v>
       </c>
       <c r="M8" t="n">
-        <v>-1.86</v>
+        <v>-1.98</v>
       </c>
       <c r="N8" t="n">
-        <v>0.53</v>
+        <v>0.55</v>
       </c>
       <c r="O8" t="n">
-        <v>7.86</v>
+        <v>6.91</v>
       </c>
       <c r="P8" t="n">
-        <v>4.92</v>
+        <v>4.45</v>
       </c>
       <c r="Q8" t="n">
-        <v>7.39</v>
+        <v>5.49</v>
       </c>
       <c r="R8" t="n">
-        <v>9.15</v>
+        <v>9.49</v>
       </c>
       <c r="S8" t="n">
-        <v>2.73</v>
+        <v>2.25</v>
       </c>
       <c r="T8" t="n">
-        <v>-0.1</v>
+        <v>-0.12</v>
       </c>
       <c r="U8" t="n">
-        <v>2.96</v>
+        <v>3.07</v>
       </c>
       <c r="V8" t="n">
-        <v>-0.65</v>
+        <v>-0.73</v>
       </c>
       <c r="W8" t="n">
-        <v>-0.9399999999999999</v>
+        <v>-0.77</v>
       </c>
       <c r="X8" t="n">
-        <v>-0.31</v>
+        <v>-0.34</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.88</v>
+        <v>1.39</v>
       </c>
       <c r="Z8" t="n">
-        <v>-0.2</v>
+        <v>-0.17</v>
       </c>
       <c r="AA8" t="n">
-        <v>2.3</v>
+        <v>1.78</v>
       </c>
       <c r="AB8" t="n">
-        <v>7.47</v>
+        <v>7.3</v>
       </c>
       <c r="AC8" t="n">
-        <v>7.34</v>
+        <v>7.21</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="AE8" t="n">
-        <v>7.89</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="AF8" t="n">
-        <v>13.38</v>
+        <v>9.81</v>
       </c>
       <c r="AG8" t="n">
-        <v>2.29</v>
+        <v>3.02</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.74</v>
+        <v>0.8</v>
       </c>
       <c r="AI8" t="n">
-        <v>4.49</v>
+        <v>5.21</v>
       </c>
       <c r="AJ8" t="n">
-        <v>4.02</v>
+        <v>5.32</v>
       </c>
       <c r="AK8" t="n">
-        <v>-1.2</v>
+        <v>-1</v>
       </c>
       <c r="AL8" t="n">
-        <v>3.08</v>
+        <v>3</v>
       </c>
       <c r="AM8" t="n">
-        <v>10.55</v>
+        <v>11.67</v>
       </c>
       <c r="AN8" t="n">
-        <v>7.27</v>
+        <v>7.12</v>
       </c>
       <c r="AO8" t="n">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="AP8" t="n">
-        <v>9.800000000000001</v>
+        <v>11.81</v>
       </c>
       <c r="AQ8" t="n">
-        <v>6.23</v>
+        <v>6.88</v>
       </c>
       <c r="AR8" t="n">
-        <v>-7.04</v>
+        <v>-5.41</v>
       </c>
       <c r="AS8" t="n">
-        <v>-1.41</v>
+        <v>-1.31</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.15</v>
+        <v>1.22</v>
       </c>
       <c r="AU8" t="n">
-        <v>1.67</v>
+        <v>1.49</v>
       </c>
       <c r="AV8" t="n">
-        <v>8.529999999999999</v>
+        <v>9.35</v>
       </c>
       <c r="AW8" t="n">
-        <v>10.17</v>
+        <v>10.71</v>
       </c>
       <c r="AX8" t="n">
-        <v>4.86</v>
+        <v>6.28</v>
       </c>
       <c r="AY8" t="n">
-        <v>3.6</v>
+        <v>3.92</v>
       </c>
       <c r="AZ8" t="n">
-        <v>5.14</v>
+        <v>4.65</v>
       </c>
     </row>
     <row r="9">
@@ -1824,157 +1824,157 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.55</v>
+        <v>-0.49</v>
       </c>
       <c r="C9" t="n">
-        <v>23.45</v>
+        <v>25.72</v>
       </c>
       <c r="D9" t="n">
-        <v>1.52</v>
+        <v>1.44</v>
       </c>
       <c r="E9" t="n">
-        <v>-5.06</v>
+        <v>-6.43</v>
       </c>
       <c r="F9" t="n">
-        <v>11.23</v>
+        <v>10.96</v>
       </c>
       <c r="G9" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="H9" t="n">
-        <v>-3.85</v>
+        <v>-3.04</v>
       </c>
       <c r="I9" t="n">
-        <v>9.68</v>
+        <v>10.23</v>
       </c>
       <c r="J9" t="n">
-        <v>14.27</v>
+        <v>14.49</v>
       </c>
       <c r="K9" t="n">
-        <v>-1.07</v>
+        <v>-1.01</v>
       </c>
       <c r="L9" t="n">
-        <v>-1.3</v>
+        <v>-1.43</v>
       </c>
       <c r="M9" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="N9" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="O9" t="n">
+        <v>8.619999999999999</v>
+      </c>
+      <c r="P9" t="n">
+        <v>-2.6</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="R9" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="S9" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="T9" t="n">
+        <v>-4.66</v>
+      </c>
+      <c r="U9" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="X9" t="n">
+        <v>8.24</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>-4.18</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>-1.74</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>7.42</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>-0.43</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>-0.22</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>-1.88</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>8.16</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>-3.9</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>-4.5</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>-0.47</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>5.57</v>
+      </c>
+      <c r="AW9" t="n">
         <v>7.63</v>
       </c>
-      <c r="O9" t="n">
-        <v>9.66</v>
-      </c>
-      <c r="P9" t="n">
-        <v>-3.05</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="R9" t="n">
-        <v>13.64</v>
-      </c>
-      <c r="S9" t="n">
-        <v>3.72</v>
-      </c>
-      <c r="T9" t="n">
-        <v>-4.32</v>
-      </c>
-      <c r="U9" t="n">
-        <v>3</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="X9" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>5.72</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>-4.55</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>-1.9</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>7.66</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>-0.44</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>5.54</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>-0.19</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>-1.67</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>8.43</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>9.99</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>-4.59</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>-3.35</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>-0.48</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>8.07</v>
-      </c>
       <c r="AX9" t="n">
-        <v>7.04</v>
+        <v>7.14</v>
       </c>
       <c r="AY9" t="n">
-        <v>-1.02</v>
+        <v>-1.19</v>
       </c>
       <c r="AZ9" t="n">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="10">
@@ -1984,154 +1984,154 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.03</v>
+        <v>3.18</v>
       </c>
       <c r="C10" t="n">
-        <v>6.41</v>
+        <v>6.72</v>
       </c>
       <c r="D10" t="n">
-        <v>6.91</v>
+        <v>6.1</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.67</v>
+        <v>-0.55</v>
       </c>
       <c r="F10" t="n">
-        <v>14.88</v>
+        <v>18.07</v>
       </c>
       <c r="G10" t="n">
-        <v>16.03</v>
+        <v>16.66</v>
       </c>
       <c r="H10" t="n">
-        <v>4.01</v>
+        <v>4.43</v>
       </c>
       <c r="I10" t="n">
-        <v>4.89</v>
+        <v>4.39</v>
       </c>
       <c r="J10" t="n">
-        <v>3.16</v>
+        <v>3.23</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.36</v>
+        <v>-0.33</v>
       </c>
       <c r="L10" t="n">
         <v>0.42</v>
       </c>
       <c r="M10" t="n">
-        <v>0.68</v>
+        <v>0.77</v>
       </c>
       <c r="N10" t="n">
-        <v>3.03</v>
+        <v>3.11</v>
       </c>
       <c r="O10" t="n">
-        <v>6.59</v>
+        <v>5.48</v>
       </c>
       <c r="P10" t="n">
-        <v>2.38</v>
+        <v>2.46</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.01</v>
+        <v>3.06</v>
       </c>
       <c r="R10" t="n">
-        <v>10</v>
+        <v>8.68</v>
       </c>
       <c r="S10" t="n">
-        <v>3.41</v>
+        <v>4.2</v>
       </c>
       <c r="T10" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="U10" t="n">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
       <c r="V10" t="n">
-        <v>2.14</v>
+        <v>2.64</v>
       </c>
       <c r="W10" t="n">
-        <v>1.78</v>
+        <v>1.45</v>
       </c>
       <c r="X10" t="n">
-        <v>3.29</v>
+        <v>3.83</v>
       </c>
       <c r="Y10" t="n">
-        <v>3.31</v>
+        <v>2.26</v>
       </c>
       <c r="Z10" t="n">
-        <v>-0.86</v>
+        <v>-1</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AB10" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="AC10" t="n">
-        <v>2.37</v>
+        <v>3.46</v>
       </c>
       <c r="AD10" t="n">
-        <v>3.82</v>
+        <v>3.94</v>
       </c>
       <c r="AE10" t="n">
-        <v>2.79</v>
+        <v>2.64</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.25</v>
+        <v>4.41</v>
       </c>
       <c r="AG10" t="n">
-        <v>2.22</v>
+        <v>2.15</v>
       </c>
       <c r="AH10" t="n">
-        <v>1.98</v>
+        <v>1.85</v>
       </c>
       <c r="AI10" t="n">
-        <v>2.53</v>
+        <v>1.96</v>
       </c>
       <c r="AJ10" t="n">
-        <v>3.34</v>
+        <v>3.52</v>
       </c>
       <c r="AK10" t="n">
-        <v>2.03</v>
+        <v>2.13</v>
       </c>
       <c r="AL10" t="n">
-        <v>-0.1</v>
+        <v>-0.09</v>
       </c>
       <c r="AM10" t="n">
-        <v>7.41</v>
+        <v>7.65</v>
       </c>
       <c r="AN10" t="n">
-        <v>1.38</v>
+        <v>1.84</v>
       </c>
       <c r="AO10" t="n">
-        <v>-0.09</v>
+        <v>-0.08</v>
       </c>
       <c r="AP10" t="n">
-        <v>4.58</v>
+        <v>4.02</v>
       </c>
       <c r="AQ10" t="n">
-        <v>3.32</v>
+        <v>4.89</v>
       </c>
       <c r="AR10" t="n">
-        <v>-0.87</v>
+        <v>-0.85</v>
       </c>
       <c r="AS10" t="n">
-        <v>-0.8</v>
+        <v>-0.74</v>
       </c>
       <c r="AT10" t="n">
-        <v>-0.37</v>
+        <v>-0.46</v>
       </c>
       <c r="AU10" t="n">
-        <v>0.87</v>
+        <v>1.05</v>
       </c>
       <c r="AV10" t="n">
-        <v>4.96</v>
+        <v>4.79</v>
       </c>
       <c r="AW10" t="n">
-        <v>3.48</v>
+        <v>2.63</v>
       </c>
       <c r="AX10" t="n">
-        <v>14.32</v>
+        <v>14.52</v>
       </c>
       <c r="AY10" t="n">
-        <v>4.68</v>
+        <v>4.84</v>
       </c>
       <c r="AZ10" t="n">
         <v>0.31</v>
@@ -2144,157 +2144,157 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-5.93</v>
+        <v>-6.02</v>
       </c>
       <c r="C11" t="n">
-        <v>9.369999999999999</v>
+        <v>11.71</v>
       </c>
       <c r="D11" t="n">
-        <v>-3.32</v>
+        <v>-3.86</v>
       </c>
       <c r="E11" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="F11" t="n">
-        <v>10.9</v>
+        <v>10.31</v>
       </c>
       <c r="G11" t="n">
-        <v>4.1</v>
+        <v>5.3</v>
       </c>
       <c r="H11" t="n">
-        <v>5.74</v>
+        <v>4.26</v>
       </c>
       <c r="I11" t="n">
-        <v>4.81</v>
+        <v>3.9</v>
       </c>
       <c r="J11" t="n">
-        <v>-2</v>
+        <v>-1.4</v>
       </c>
       <c r="K11" t="n">
-        <v>1.52</v>
+        <v>1.14</v>
       </c>
       <c r="L11" t="n">
-        <v>10.48</v>
+        <v>9.92</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.85</v>
+        <v>-1.03</v>
       </c>
       <c r="N11" t="n">
-        <v>8.539999999999999</v>
+        <v>8.17</v>
       </c>
       <c r="O11" t="n">
-        <v>-1.42</v>
+        <v>-1.41</v>
       </c>
       <c r="P11" t="n">
-        <v>5.81</v>
+        <v>6.74</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.390000000000001</v>
+        <v>11.11</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.23</v>
+        <v>-0.21</v>
       </c>
       <c r="S11" t="n">
-        <v>-0.86</v>
+        <v>-0.65</v>
       </c>
       <c r="T11" t="n">
-        <v>-0.09</v>
+        <v>-0.1</v>
       </c>
       <c r="U11" t="n">
-        <v>3.91</v>
+        <v>4.38</v>
       </c>
       <c r="V11" t="n">
-        <v>2.78</v>
+        <v>3.99</v>
       </c>
       <c r="W11" t="n">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="X11" t="n">
-        <v>6.5</v>
+        <v>6.44</v>
       </c>
       <c r="Y11" t="n">
-        <v>2.9</v>
+        <v>2.76</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.35</v>
+        <v>0.28</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.48</v>
+        <v>0.47</v>
       </c>
       <c r="AB11" t="n">
-        <v>1.35</v>
+        <v>0.97</v>
       </c>
       <c r="AC11" t="n">
-        <v>3.78</v>
+        <v>3.83</v>
       </c>
       <c r="AD11" t="n">
-        <v>1.05</v>
+        <v>1.51</v>
       </c>
       <c r="AE11" t="n">
-        <v>1.15</v>
+        <v>1.43</v>
       </c>
       <c r="AF11" t="n">
-        <v>6.43</v>
+        <v>7.89</v>
       </c>
       <c r="AG11" t="n">
-        <v>1.62</v>
+        <v>1.89</v>
       </c>
       <c r="AH11" t="n">
-        <v>-2.14</v>
+        <v>-2.07</v>
       </c>
       <c r="AI11" t="n">
-        <v>5.32</v>
+        <v>4.45</v>
       </c>
       <c r="AJ11" t="n">
-        <v>5.07</v>
+        <v>4.09</v>
       </c>
       <c r="AK11" t="n">
-        <v>1.99</v>
+        <v>1.74</v>
       </c>
       <c r="AL11" t="n">
-        <v>-0.08</v>
+        <v>-0.11</v>
       </c>
       <c r="AM11" t="n">
-        <v>2.39</v>
+        <v>3.02</v>
       </c>
       <c r="AN11" t="n">
-        <v>6.2</v>
+        <v>4.5</v>
       </c>
       <c r="AO11" t="n">
-        <v>5</v>
+        <v>4.72</v>
       </c>
       <c r="AP11" t="n">
-        <v>1.91</v>
+        <v>2.18</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="AR11" t="n">
-        <v>-2.94</v>
+        <v>-2.66</v>
       </c>
       <c r="AS11" t="n">
         <v>0.22</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.33</v>
+        <v>0.26</v>
       </c>
       <c r="AU11" t="n">
-        <v>-0.27</v>
+        <v>-0.35</v>
       </c>
       <c r="AV11" t="n">
-        <v>4.91</v>
+        <v>6.31</v>
       </c>
       <c r="AW11" t="n">
-        <v>5.99</v>
+        <v>5.92</v>
       </c>
       <c r="AX11" t="n">
-        <v>16.73</v>
+        <v>17.17</v>
       </c>
       <c r="AY11" t="n">
-        <v>3.56</v>
+        <v>2.98</v>
       </c>
       <c r="AZ11" t="n">
-        <v>0.9</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="12">
@@ -2304,157 +2304,157 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>12.59</v>
+        <v>15.58</v>
       </c>
       <c r="C12" t="n">
-        <v>8.140000000000001</v>
+        <v>9.31</v>
       </c>
       <c r="D12" t="n">
-        <v>10.84</v>
+        <v>13.06</v>
       </c>
       <c r="E12" t="n">
-        <v>11.57</v>
+        <v>11.72</v>
       </c>
       <c r="F12" t="n">
-        <v>8.19</v>
+        <v>8.6</v>
       </c>
       <c r="G12" t="n">
-        <v>11.39</v>
+        <v>10.29</v>
       </c>
       <c r="H12" t="n">
-        <v>9.24</v>
+        <v>9.81</v>
       </c>
       <c r="I12" t="n">
-        <v>7.25</v>
+        <v>7.57</v>
       </c>
       <c r="J12" t="n">
-        <v>4</v>
+        <v>3.34</v>
       </c>
       <c r="K12" t="n">
-        <v>1.03</v>
+        <v>1.11</v>
       </c>
       <c r="L12" t="n">
-        <v>3.34</v>
+        <v>2.75</v>
       </c>
       <c r="M12" t="n">
-        <v>5.03</v>
+        <v>3.99</v>
       </c>
       <c r="N12" t="n">
-        <v>8.58</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="O12" t="n">
-        <v>10.54</v>
+        <v>9.1</v>
       </c>
       <c r="P12" t="n">
-        <v>5.4</v>
+        <v>6.82</v>
       </c>
       <c r="Q12" t="n">
-        <v>4.28</v>
+        <v>3.73</v>
       </c>
       <c r="R12" t="n">
-        <v>1.82</v>
+        <v>2.06</v>
       </c>
       <c r="S12" t="n">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="T12" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="U12" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="V12" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="W12" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>-1.74</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>4.83</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>5.27</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="AN12" t="n">
         <v>2.37</v>
       </c>
-      <c r="U12" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="V12" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="W12" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="X12" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>-1.3</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>3.39</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>3.82</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>4</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>7.05</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>3</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>2.65</v>
-      </c>
       <c r="AO12" t="n">
-        <v>2.01</v>
+        <v>2.73</v>
       </c>
       <c r="AP12" t="n">
-        <v>5.9</v>
+        <v>5.51</v>
       </c>
       <c r="AQ12" t="n">
-        <v>-0.79</v>
+        <v>-0.86</v>
       </c>
       <c r="AR12" t="n">
-        <v>-0.59</v>
+        <v>-0.61</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.24</v>
+        <v>1.14</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.14</v>
+        <v>1.91</v>
       </c>
       <c r="AU12" t="n">
-        <v>1.76</v>
+        <v>1.47</v>
       </c>
       <c r="AV12" t="n">
-        <v>2.95</v>
+        <v>3.73</v>
       </c>
       <c r="AW12" t="n">
-        <v>4.41</v>
+        <v>5.73</v>
       </c>
       <c r="AX12" t="n">
-        <v>9.9</v>
+        <v>7.34</v>
       </c>
       <c r="AY12" t="n">
         <v>0.32</v>
       </c>
       <c r="AZ12" t="n">
-        <v>-1.95</v>
+        <v>-1.62</v>
       </c>
     </row>
     <row r="13">
@@ -2464,157 +2464,157 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="C13" t="n">
-        <v>-1.6</v>
+        <v>-2.04</v>
       </c>
       <c r="D13" t="n">
-        <v>9.52</v>
+        <v>9.26</v>
       </c>
       <c r="E13" t="n">
-        <v>-3.82</v>
+        <v>-3.52</v>
       </c>
       <c r="F13" t="n">
-        <v>-5.84</v>
+        <v>-6.33</v>
       </c>
       <c r="G13" t="n">
-        <v>8.51</v>
+        <v>10.4</v>
       </c>
       <c r="H13" t="n">
-        <v>-2.03</v>
+        <v>-1.84</v>
       </c>
       <c r="I13" t="n">
-        <v>8.31</v>
+        <v>8.43</v>
       </c>
       <c r="J13" t="n">
-        <v>-3.12</v>
+        <v>-2.41</v>
       </c>
       <c r="K13" t="n">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="L13" t="n">
-        <v>11.43</v>
+        <v>10.87</v>
       </c>
       <c r="M13" t="n">
-        <v>-14.69</v>
+        <v>-14.23</v>
       </c>
       <c r="N13" t="n">
+        <v>6.07</v>
+      </c>
+      <c r="O13" t="n">
+        <v>-6.03</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>28.75</v>
+      </c>
+      <c r="R13" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="S13" t="n">
+        <v>-1.96</v>
+      </c>
+      <c r="T13" t="n">
+        <v>-11.81</v>
+      </c>
+      <c r="U13" t="n">
+        <v>8.77</v>
+      </c>
+      <c r="V13" t="n">
+        <v>-2.77</v>
+      </c>
+      <c r="W13" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="X13" t="n">
+        <v>19.99</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>-1.45</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>-3.13</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>-5.49</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>12.73</v>
+      </c>
+      <c r="AF13" t="n">
         <v>7.36</v>
       </c>
-      <c r="O13" t="n">
-        <v>-6.7</v>
-      </c>
-      <c r="P13" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>22.23</v>
-      </c>
-      <c r="R13" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="S13" t="n">
-        <v>-2.59</v>
-      </c>
-      <c r="T13" t="n">
-        <v>-12.49</v>
-      </c>
-      <c r="U13" t="n">
-        <v>6.78</v>
-      </c>
-      <c r="V13" t="n">
-        <v>-2.66</v>
-      </c>
-      <c r="W13" t="n">
-        <v>5.43</v>
-      </c>
-      <c r="X13" t="n">
-        <v>18.98</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>-1.34</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>-3.42</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>-4.91</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>3.19</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>15.08</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>6.92</v>
-      </c>
       <c r="AG13" t="n">
-        <v>-13.82</v>
+        <v>-10.98</v>
       </c>
       <c r="AH13" t="n">
-        <v>5.33</v>
+        <v>5.14</v>
       </c>
       <c r="AI13" t="n">
-        <v>33.86</v>
+        <v>33.31</v>
       </c>
       <c r="AJ13" t="n">
-        <v>12.57</v>
+        <v>11.37</v>
       </c>
       <c r="AK13" t="n">
-        <v>-14.38</v>
+        <v>-13.96</v>
       </c>
       <c r="AL13" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>8.52</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>8.609999999999999</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>16.31</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>-19.26</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>-8.07</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>-10.32</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>33.68</v>
+      </c>
+      <c r="AY13" t="n">
         <v>1.52</v>
       </c>
-      <c r="AM13" t="n">
-        <v>9.77</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>2.93</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>7.95</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>-21.29</v>
-      </c>
-      <c r="AS13" t="n">
-        <v>-10.6</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>9.49</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>-11.11</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>3.74</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>4.49</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>31.46</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>1.53</v>
-      </c>
       <c r="AZ13" t="n">
-        <v>10.04</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -2624,157 +2624,157 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>15.63</v>
+        <v>20.86</v>
       </c>
       <c r="C14" t="n">
-        <v>2.6</v>
+        <v>3.53</v>
       </c>
       <c r="D14" t="n">
-        <v>8.59</v>
+        <v>9.33</v>
       </c>
       <c r="E14" t="n">
-        <v>2.57</v>
+        <v>3.05</v>
       </c>
       <c r="F14" t="n">
-        <v>7.51</v>
+        <v>6.32</v>
       </c>
       <c r="G14" t="n">
-        <v>11.48</v>
+        <v>12.71</v>
       </c>
       <c r="H14" t="n">
-        <v>9.470000000000001</v>
+        <v>11.52</v>
       </c>
       <c r="I14" t="n">
-        <v>7.27</v>
+        <v>7.74</v>
       </c>
       <c r="J14" t="n">
         <v>1.26</v>
       </c>
       <c r="K14" t="n">
-        <v>1.39</v>
+        <v>0.99</v>
       </c>
       <c r="L14" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="M14" t="n">
-        <v>1.67</v>
+        <v>2.19</v>
       </c>
       <c r="N14" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="O14" t="n">
-        <v>2.58</v>
+        <v>2.04</v>
       </c>
       <c r="P14" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="Q14" t="n">
-        <v>5.97</v>
+        <v>7.33</v>
       </c>
       <c r="R14" t="n">
-        <v>9.35</v>
+        <v>9.06</v>
       </c>
       <c r="S14" t="n">
-        <v>-1.05</v>
+        <v>-1.13</v>
       </c>
       <c r="T14" t="n">
-        <v>2.87</v>
+        <v>3.06</v>
       </c>
       <c r="U14" t="n">
-        <v>0.66</v>
+        <v>0.73</v>
       </c>
       <c r="V14" t="n">
-        <v>1.72</v>
+        <v>1.57</v>
       </c>
       <c r="W14" t="n">
-        <v>0.67</v>
+        <v>0.92</v>
       </c>
       <c r="X14" t="n">
-        <v>7.25</v>
+        <v>6.98</v>
       </c>
       <c r="Y14" t="n">
         <v>2.09</v>
       </c>
       <c r="Z14" t="n">
-        <v>3.65</v>
+        <v>3.58</v>
       </c>
       <c r="AA14" t="n">
-        <v>5.32</v>
+        <v>6.49</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AC14" t="n">
-        <v>4.06</v>
+        <v>3.62</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.54</v>
+        <v>0.6</v>
       </c>
       <c r="AE14" t="n">
-        <v>-0.09</v>
+        <v>-0.12</v>
       </c>
       <c r="AF14" t="n">
-        <v>8.359999999999999</v>
+        <v>8.18</v>
       </c>
       <c r="AG14" t="n">
-        <v>1.28</v>
+        <v>1.24</v>
       </c>
       <c r="AH14" t="n">
-        <v>-0.57</v>
+        <v>-0.47</v>
       </c>
       <c r="AI14" t="n">
-        <v>5.97</v>
+        <v>7.98</v>
       </c>
       <c r="AJ14" t="n">
-        <v>7.66</v>
+        <v>8.91</v>
       </c>
       <c r="AK14" t="n">
-        <v>-6.97</v>
+        <v>-7.67</v>
       </c>
       <c r="AL14" t="n">
-        <v>0.88</v>
+        <v>1.24</v>
       </c>
       <c r="AM14" t="n">
-        <v>6.81</v>
+        <v>5.83</v>
       </c>
       <c r="AN14" t="n">
-        <v>1.69</v>
+        <v>2.39</v>
       </c>
       <c r="AO14" t="n">
         <v>0.09</v>
       </c>
       <c r="AP14" t="n">
-        <v>3.55</v>
+        <v>3.87</v>
       </c>
       <c r="AQ14" t="n">
-        <v>-1.46</v>
+        <v>-1.23</v>
       </c>
       <c r="AR14" t="n">
-        <v>-2.14</v>
+        <v>-2.09</v>
       </c>
       <c r="AS14" t="n">
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
       <c r="AT14" t="n">
-        <v>-0.54</v>
+        <v>-0.42</v>
       </c>
       <c r="AU14" t="n">
-        <v>0.99</v>
+        <v>0.9</v>
       </c>
       <c r="AV14" t="n">
-        <v>3.67</v>
+        <v>4.82</v>
       </c>
       <c r="AW14" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AX14" t="n">
-        <v>12.33</v>
+        <v>10.24</v>
       </c>
       <c r="AY14" t="n">
-        <v>3.76</v>
+        <v>3.6</v>
       </c>
       <c r="AZ14" t="n">
-        <v>-0.24</v>
+        <v>-0.21</v>
       </c>
     </row>
     <row r="15">
@@ -2784,157 +2784,157 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>45.75</v>
+        <v>42.7</v>
       </c>
       <c r="C15" t="n">
-        <v>10.52</v>
+        <v>12.51</v>
       </c>
       <c r="D15" t="n">
-        <v>-12.82</v>
+        <v>-12.75</v>
       </c>
       <c r="E15" t="n">
-        <v>11.74</v>
+        <v>10.88</v>
       </c>
       <c r="F15" t="n">
-        <v>10.21</v>
+        <v>8.68</v>
       </c>
       <c r="G15" t="n">
-        <v>8.710000000000001</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="H15" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="I15" t="n">
-        <v>8.800000000000001</v>
+        <v>12.5</v>
       </c>
       <c r="J15" t="n">
-        <v>-3.21</v>
+        <v>-2.95</v>
       </c>
       <c r="K15" t="n">
-        <v>1.13</v>
+        <v>1.32</v>
       </c>
       <c r="L15" t="n">
-        <v>8.35</v>
+        <v>9.31</v>
       </c>
       <c r="M15" t="n">
-        <v>2.39</v>
+        <v>2.07</v>
       </c>
       <c r="N15" t="n">
-        <v>-2.1</v>
+        <v>-1.78</v>
       </c>
       <c r="O15" t="n">
-        <v>1.25</v>
+        <v>1.53</v>
       </c>
       <c r="P15" t="n">
-        <v>4.62</v>
+        <v>4.87</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.27</v>
+        <v>6.22</v>
       </c>
       <c r="R15" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="S15" t="n">
-        <v>4.21</v>
+        <v>4.25</v>
       </c>
       <c r="T15" t="n">
-        <v>-1.22</v>
+        <v>-1.36</v>
       </c>
       <c r="U15" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="V15" t="n">
-        <v>2.48</v>
+        <v>2.62</v>
       </c>
       <c r="W15" t="n">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="X15" t="n">
-        <v>2.71</v>
+        <v>2.06</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="Z15" t="n">
-        <v>4</v>
+        <v>3.02</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="AB15" t="n">
-        <v>-0.65</v>
+        <v>-0.58</v>
       </c>
       <c r="AC15" t="n">
-        <v>5.85</v>
+        <v>6.33</v>
       </c>
       <c r="AD15" t="n">
-        <v>-0.21</v>
+        <v>-0.23</v>
       </c>
       <c r="AE15" t="n">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="AF15" t="n">
-        <v>6.66</v>
+        <v>7.77</v>
       </c>
       <c r="AG15" t="n">
         <v>-0.1</v>
       </c>
       <c r="AH15" t="n">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
       <c r="AI15" t="n">
-        <v>2.32</v>
+        <v>2.47</v>
       </c>
       <c r="AJ15" t="n">
-        <v>12.57</v>
+        <v>14.17</v>
       </c>
       <c r="AK15" t="n">
-        <v>2.73</v>
+        <v>2.65</v>
       </c>
       <c r="AL15" t="n">
         <v>-0.25</v>
       </c>
       <c r="AM15" t="n">
-        <v>9.69</v>
+        <v>9.48</v>
       </c>
       <c r="AN15" t="n">
-        <v>6.86</v>
+        <v>6.3</v>
       </c>
       <c r="AO15" t="n">
-        <v>-1.26</v>
+        <v>-1.44</v>
       </c>
       <c r="AP15" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="AQ15" t="n">
-        <v>-1.03</v>
+        <v>-1.06</v>
       </c>
       <c r="AR15" t="n">
-        <v>-0.54</v>
+        <v>-0.71</v>
       </c>
       <c r="AS15" t="n">
-        <v>0.89</v>
+        <v>0.74</v>
       </c>
       <c r="AT15" t="n">
         <v>0.12</v>
       </c>
       <c r="AU15" t="n">
-        <v>-0.8100000000000001</v>
+        <v>-0.64</v>
       </c>
       <c r="AV15" t="n">
-        <v>1.45</v>
+        <v>1.15</v>
       </c>
       <c r="AW15" t="n">
-        <v>5.22</v>
+        <v>4.62</v>
       </c>
       <c r="AX15" t="n">
-        <v>17.61</v>
+        <v>16.93</v>
       </c>
       <c r="AY15" t="n">
-        <v>10.49</v>
+        <v>10.3</v>
       </c>
       <c r="AZ15" t="n">
-        <v>2.76</v>
+        <v>2.82</v>
       </c>
     </row>
     <row r="16">
@@ -2944,157 +2944,157 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>19.13</v>
+        <v>16.78</v>
       </c>
       <c r="C16" t="n">
-        <v>2.57</v>
+        <v>3.24</v>
       </c>
       <c r="D16" t="n">
-        <v>2.31</v>
+        <v>2.27</v>
       </c>
       <c r="E16" t="n">
-        <v>9.58</v>
+        <v>11</v>
       </c>
       <c r="F16" t="n">
-        <v>12.43</v>
+        <v>9.51</v>
       </c>
       <c r="G16" t="n">
-        <v>6.62</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H16" t="n">
-        <v>7.72</v>
+        <v>7.34</v>
       </c>
       <c r="I16" t="n">
-        <v>14.37</v>
+        <v>13.23</v>
       </c>
       <c r="J16" t="n">
-        <v>5.85</v>
+        <v>6.33</v>
       </c>
       <c r="K16" t="n">
-        <v>0.31</v>
+        <v>0.26</v>
       </c>
       <c r="L16" t="n">
-        <v>6.89</v>
+        <v>10.29</v>
       </c>
       <c r="M16" t="n">
-        <v>2.17</v>
+        <v>2.54</v>
       </c>
       <c r="N16" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="O16" t="n">
-        <v>9.41</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="P16" t="n">
-        <v>8.539999999999999</v>
+        <v>8.26</v>
       </c>
       <c r="Q16" t="n">
-        <v>6.41</v>
+        <v>6.52</v>
       </c>
       <c r="R16" t="n">
-        <v>8.27</v>
+        <v>6.8</v>
       </c>
       <c r="S16" t="n">
-        <v>5.28</v>
+        <v>4.34</v>
       </c>
       <c r="T16" t="n">
-        <v>-0.32</v>
+        <v>-0.27</v>
       </c>
       <c r="U16" t="n">
-        <v>1.89</v>
+        <v>2.37</v>
       </c>
       <c r="V16" t="n">
-        <v>4.12</v>
+        <v>4.39</v>
       </c>
       <c r="W16" t="n">
-        <v>7.74</v>
+        <v>6.96</v>
       </c>
       <c r="X16" t="n">
-        <v>3.65</v>
+        <v>4.19</v>
       </c>
       <c r="Y16" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="Z16" t="n">
-        <v>5.06</v>
+        <v>6.28</v>
       </c>
       <c r="AA16" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF16" t="n">
         <v>2.98</v>
       </c>
-      <c r="AB16" t="n">
+      <c r="AG16" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>5.14</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>-1.73</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>-0.5600000000000001</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>-0.23</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>-0.19</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>9.15</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AZ16" t="n">
         <v>0.72</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>3.43</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>3.63</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>-1.81</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>4.11</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>-0.65</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>-0.21</v>
-      </c>
-      <c r="AR16" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="AS16" t="n">
-        <v>-0.17</v>
-      </c>
-      <c r="AT16" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="AV16" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="AW16" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AX16" t="n">
-        <v>8.58</v>
-      </c>
-      <c r="AY16" t="n">
-        <v>2.89</v>
-      </c>
-      <c r="AZ16" t="n">
-        <v>0.78</v>
       </c>
     </row>
     <row r="17">
@@ -3104,157 +3104,157 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>7.3</v>
+        <v>7.94</v>
       </c>
       <c r="C17" t="n">
-        <v>2.08</v>
+        <v>2.37</v>
       </c>
       <c r="D17" t="n">
-        <v>2.66</v>
+        <v>2.18</v>
       </c>
       <c r="E17" t="n">
-        <v>15.64</v>
+        <v>14.72</v>
       </c>
       <c r="F17" t="n">
-        <v>12.6</v>
+        <v>14.2</v>
       </c>
       <c r="G17" t="n">
-        <v>8.41</v>
+        <v>7.09</v>
       </c>
       <c r="H17" t="n">
-        <v>8.83</v>
+        <v>7.72</v>
       </c>
       <c r="I17" t="n">
-        <v>12.08</v>
+        <v>10.82</v>
       </c>
       <c r="J17" t="n">
-        <v>5.77</v>
+        <v>5.23</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.26</v>
+        <v>-0.32</v>
       </c>
       <c r="L17" t="n">
-        <v>12.77</v>
+        <v>10.28</v>
       </c>
       <c r="M17" t="n">
-        <v>2.38</v>
+        <v>3.01</v>
       </c>
       <c r="N17" t="n">
-        <v>3.08</v>
+        <v>2.95</v>
       </c>
       <c r="O17" t="n">
-        <v>13.97</v>
+        <v>12.4</v>
       </c>
       <c r="P17" t="n">
-        <v>7.66</v>
+        <v>6.96</v>
       </c>
       <c r="Q17" t="n">
-        <v>8.18</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="R17" t="n">
-        <v>10.37</v>
+        <v>9.93</v>
       </c>
       <c r="S17" t="n">
-        <v>9.25</v>
+        <v>8.67</v>
       </c>
       <c r="T17" t="n">
-        <v>-1.72</v>
+        <v>-2.11</v>
       </c>
       <c r="U17" t="n">
-        <v>4.56</v>
+        <v>3.94</v>
       </c>
       <c r="V17" t="n">
-        <v>4.9</v>
+        <v>5.02</v>
       </c>
       <c r="W17" t="n">
-        <v>9.48</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="X17" t="n">
-        <v>3.06</v>
+        <v>3.2</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.8</v>
+        <v>1.48</v>
       </c>
       <c r="Z17" t="n">
-        <v>7.61</v>
+        <v>8.470000000000001</v>
       </c>
       <c r="AA17" t="n">
-        <v>2.73</v>
+        <v>2.98</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.7</v>
+        <v>0.65</v>
       </c>
       <c r="AC17" t="n">
-        <v>4.47</v>
+        <v>4.21</v>
       </c>
       <c r="AD17" t="n">
-        <v>4.14</v>
+        <v>4.37</v>
       </c>
       <c r="AE17" t="n">
-        <v>2.2</v>
+        <v>3.12</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.05</v>
+        <v>3.61</v>
       </c>
       <c r="AG17" t="n">
-        <v>3.87</v>
+        <v>3.25</v>
       </c>
       <c r="AH17" t="n">
-        <v>4.56</v>
+        <v>5.26</v>
       </c>
       <c r="AI17" t="n">
-        <v>3.96</v>
+        <v>4.45</v>
       </c>
       <c r="AJ17" t="n">
-        <v>4.5</v>
+        <v>4.78</v>
       </c>
       <c r="AK17" t="n">
-        <v>-4.82</v>
+        <v>-4.9</v>
       </c>
       <c r="AL17" t="n">
-        <v>0.57</v>
+        <v>0.61</v>
       </c>
       <c r="AM17" t="n">
-        <v>3.62</v>
+        <v>5.01</v>
       </c>
       <c r="AN17" t="n">
-        <v>-1.6</v>
+        <v>-2.01</v>
       </c>
       <c r="AO17" t="n">
-        <v>3.84</v>
+        <v>3.48</v>
       </c>
       <c r="AP17" t="n">
-        <v>1.62</v>
+        <v>1.76</v>
       </c>
       <c r="AQ17" t="n">
         <v>-0.45</v>
       </c>
       <c r="AR17" t="n">
-        <v>1.39</v>
+        <v>1</v>
       </c>
       <c r="AS17" t="n">
-        <v>0.24</v>
+        <v>0.18</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.12</v>
+        <v>1.05</v>
       </c>
       <c r="AU17" t="n">
-        <v>1.1</v>
+        <v>0.88</v>
       </c>
       <c r="AV17" t="n">
-        <v>0.91</v>
+        <v>0.96</v>
       </c>
       <c r="AW17" t="n">
-        <v>3.33</v>
+        <v>2.77</v>
       </c>
       <c r="AX17" t="n">
-        <v>8.619999999999999</v>
+        <v>6.82</v>
       </c>
       <c r="AY17" t="n">
-        <v>0.65</v>
+        <v>0.87</v>
       </c>
       <c r="AZ17" t="n">
-        <v>0.62</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="18">
@@ -3264,157 +3264,157 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>9.220000000000001</v>
+        <v>7.28</v>
       </c>
       <c r="C18" t="n">
-        <v>6.32</v>
+        <v>6.96</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.23</v>
+        <v>-0.18</v>
       </c>
       <c r="E18" t="n">
-        <v>17.43</v>
+        <v>14.25</v>
       </c>
       <c r="F18" t="n">
-        <v>18.68</v>
+        <v>19.23</v>
       </c>
       <c r="G18" t="n">
-        <v>12.9</v>
+        <v>14.71</v>
       </c>
       <c r="H18" t="n">
-        <v>5.92</v>
+        <v>7.12</v>
       </c>
       <c r="I18" t="n">
-        <v>4.72</v>
+        <v>6.24</v>
       </c>
       <c r="J18" t="n">
-        <v>12.11</v>
+        <v>11.05</v>
       </c>
       <c r="K18" t="n">
-        <v>-3.97</v>
+        <v>-4.3</v>
       </c>
       <c r="L18" t="n">
-        <v>12.12</v>
+        <v>11.82</v>
       </c>
       <c r="M18" t="n">
-        <v>10.42</v>
+        <v>9.24</v>
       </c>
       <c r="N18" t="n">
-        <v>2.4</v>
+        <v>1.71</v>
       </c>
       <c r="O18" t="n">
-        <v>11.24</v>
+        <v>11.25</v>
       </c>
       <c r="P18" t="n">
-        <v>8.44</v>
+        <v>7.43</v>
       </c>
       <c r="Q18" t="n">
-        <v>5.94</v>
+        <v>7.81</v>
       </c>
       <c r="R18" t="n">
-        <v>12.33</v>
+        <v>12.96</v>
       </c>
       <c r="S18" t="n">
-        <v>14.85</v>
+        <v>14.13</v>
       </c>
       <c r="T18" t="n">
-        <v>-5.63</v>
+        <v>-5.19</v>
       </c>
       <c r="U18" t="n">
-        <v>2.71</v>
+        <v>2.85</v>
       </c>
       <c r="V18" t="n">
-        <v>6.19</v>
+        <v>6.84</v>
       </c>
       <c r="W18" t="n">
-        <v>8.4</v>
+        <v>8.48</v>
       </c>
       <c r="X18" t="n">
-        <v>5.99</v>
+        <v>6.95</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.79</v>
       </c>
       <c r="Z18" t="n">
-        <v>3.81</v>
+        <v>5.02</v>
       </c>
       <c r="AA18" t="n">
-        <v>7.2</v>
+        <v>6.77</v>
       </c>
       <c r="AB18" t="n">
-        <v>-3.32</v>
+        <v>-3.51</v>
       </c>
       <c r="AC18" t="n">
-        <v>2.48</v>
+        <v>2.33</v>
       </c>
       <c r="AD18" t="n">
-        <v>2.05</v>
+        <v>2.17</v>
       </c>
       <c r="AE18" t="n">
-        <v>3.41</v>
+        <v>3.05</v>
       </c>
       <c r="AF18" t="n">
-        <v>2.72</v>
+        <v>2.86</v>
       </c>
       <c r="AG18" t="n">
-        <v>4.24</v>
+        <v>4.32</v>
       </c>
       <c r="AH18" t="n">
-        <v>7.07</v>
+        <v>5.48</v>
       </c>
       <c r="AI18" t="n">
-        <v>5.26</v>
+        <v>5.29</v>
       </c>
       <c r="AJ18" t="n">
-        <v>4.21</v>
+        <v>4.53</v>
       </c>
       <c r="AK18" t="n">
-        <v>-7.24</v>
+        <v>-7.17</v>
       </c>
       <c r="AL18" t="n">
-        <v>-0.7</v>
+        <v>-0.52</v>
       </c>
       <c r="AM18" t="n">
-        <v>3.88</v>
+        <v>3.96</v>
       </c>
       <c r="AN18" t="n">
-        <v>1.16</v>
+        <v>0.88</v>
       </c>
       <c r="AO18" t="n">
-        <v>2.09</v>
+        <v>1.99</v>
       </c>
       <c r="AP18" t="n">
-        <v>4.35</v>
+        <v>4.96</v>
       </c>
       <c r="AQ18" t="n">
-        <v>-2.14</v>
+        <v>-2.3</v>
       </c>
       <c r="AR18" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AS18" t="n">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.03</v>
+        <v>0.99</v>
       </c>
       <c r="AU18" t="n">
-        <v>-1.47</v>
+        <v>-1.67</v>
       </c>
       <c r="AV18" t="n">
-        <v>-0.93</v>
+        <v>-0.82</v>
       </c>
       <c r="AW18" t="n">
-        <v>5.86</v>
+        <v>6.15</v>
       </c>
       <c r="AX18" t="n">
-        <v>7.35</v>
+        <v>7.78</v>
       </c>
       <c r="AY18" t="n">
-        <v>0.61</v>
+        <v>0.73</v>
       </c>
       <c r="AZ18" t="n">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="19">
@@ -3424,157 +3424,157 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>8.48</v>
+        <v>8.74</v>
       </c>
       <c r="C19" t="n">
-        <v>-1.24</v>
+        <v>-1.03</v>
       </c>
       <c r="D19" t="n">
-        <v>4.41</v>
+        <v>3.86</v>
       </c>
       <c r="E19" t="n">
-        <v>14.67</v>
+        <v>12.12</v>
       </c>
       <c r="F19" t="n">
-        <v>7.27</v>
+        <v>6.74</v>
       </c>
       <c r="G19" t="n">
-        <v>3.11</v>
+        <v>2.56</v>
       </c>
       <c r="H19" t="n">
-        <v>9.539999999999999</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="I19" t="n">
-        <v>19.5</v>
+        <v>16.85</v>
       </c>
       <c r="J19" t="n">
-        <v>0.58</v>
+        <v>0.43</v>
       </c>
       <c r="K19" t="n">
-        <v>3.77</v>
+        <v>3.67</v>
       </c>
       <c r="L19" t="n">
-        <v>12.38</v>
+        <v>12.47</v>
       </c>
       <c r="M19" t="n">
-        <v>-4.98</v>
+        <v>-5.15</v>
       </c>
       <c r="N19" t="n">
-        <v>4.55</v>
+        <v>4.51</v>
       </c>
       <c r="O19" t="n">
-        <v>12.24</v>
+        <v>14.26</v>
       </c>
       <c r="P19" t="n">
+        <v>6.07</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>8.58</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5.48</v>
+      </c>
+      <c r="S19" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="U19" t="n">
+        <v>5.96</v>
+      </c>
+      <c r="V19" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="W19" t="n">
+        <v>10.98</v>
+      </c>
+      <c r="X19" t="n">
+        <v>-2.06</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>-2.47</v>
+      </c>
+      <c r="AB19" t="n">
         <v>5.18</v>
       </c>
-      <c r="Q19" t="n">
-        <v>9.949999999999999</v>
-      </c>
-      <c r="R19" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="S19" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="T19" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="U19" t="n">
-        <v>7.74</v>
-      </c>
-      <c r="V19" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="W19" t="n">
-        <v>9.960000000000001</v>
-      </c>
-      <c r="X19" t="n">
-        <v>-2.29</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>-2.81</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>3.97</v>
-      </c>
       <c r="AC19" t="n">
-        <v>5.02</v>
+        <v>5.63</v>
       </c>
       <c r="AD19" t="n">
-        <v>6.45</v>
+        <v>5.59</v>
       </c>
       <c r="AE19" t="n">
-        <v>2.15</v>
+        <v>2.09</v>
       </c>
       <c r="AF19" t="n">
-        <v>3.5</v>
+        <v>5.05</v>
       </c>
       <c r="AG19" t="n">
-        <v>3.82</v>
+        <v>3.49</v>
       </c>
       <c r="AH19" t="n">
-        <v>4.88</v>
+        <v>5.44</v>
       </c>
       <c r="AI19" t="n">
-        <v>3.29</v>
+        <v>2.94</v>
       </c>
       <c r="AJ19" t="n">
-        <v>4.76</v>
+        <v>5.3</v>
       </c>
       <c r="AK19" t="n">
-        <v>-3.95</v>
+        <v>-3.78</v>
       </c>
       <c r="AL19" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="AM19" t="n">
-        <v>4.96</v>
+        <v>5.51</v>
       </c>
       <c r="AN19" t="n">
-        <v>-5.3</v>
+        <v>-4.82</v>
       </c>
       <c r="AO19" t="n">
-        <v>5.38</v>
+        <v>5.44</v>
       </c>
       <c r="AP19" t="n">
-        <v>-1.55</v>
+        <v>-1.2</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1.71</v>
+        <v>1.65</v>
       </c>
       <c r="AR19" t="n">
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>-0.09</v>
+        <v>-0.11</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="AU19" t="n">
-        <v>4.19</v>
+        <v>3.7</v>
       </c>
       <c r="AV19" t="n">
-        <v>2.19</v>
+        <v>2.98</v>
       </c>
       <c r="AW19" t="n">
-        <v>1.11</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AX19" t="n">
-        <v>8.380000000000001</v>
+        <v>7.29</v>
       </c>
       <c r="AY19" t="n">
-        <v>1.08</v>
+        <v>0.93</v>
       </c>
       <c r="AZ19" t="n">
-        <v>1.15</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="20">
@@ -3609,82 +3609,82 @@
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr"/>
       <c r="AA20" t="n">
-        <v>2.67</v>
+        <v>2.57</v>
       </c>
       <c r="AB20" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AC20" t="n">
-        <v>3.56</v>
+        <v>3.75</v>
       </c>
       <c r="AD20" t="n">
-        <v>3.06</v>
+        <v>4.2</v>
       </c>
       <c r="AE20" t="n">
-        <v>1.03</v>
+        <v>0.99</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="AG20" t="n">
-        <v>3.74</v>
+        <v>2.83</v>
       </c>
       <c r="AH20" t="n">
-        <v>2.87</v>
+        <v>2.71</v>
       </c>
       <c r="AI20" t="n">
-        <v>3.64</v>
+        <v>3.76</v>
       </c>
       <c r="AJ20" t="n">
-        <v>11.23</v>
+        <v>11</v>
       </c>
       <c r="AK20" t="n">
-        <v>6.1</v>
+        <v>5.45</v>
       </c>
       <c r="AL20" t="n">
-        <v>-1.09</v>
+        <v>-1.47</v>
       </c>
       <c r="AM20" t="n">
-        <v>2.82</v>
+        <v>3.45</v>
       </c>
       <c r="AN20" t="n">
-        <v>3.93</v>
+        <v>3.44</v>
       </c>
       <c r="AO20" t="n">
-        <v>0.33</v>
+        <v>0.24</v>
       </c>
       <c r="AP20" t="n">
         <v>0.09</v>
       </c>
       <c r="AQ20" t="n">
-        <v>0.78</v>
+        <v>0.76</v>
       </c>
       <c r="AR20" t="n">
-        <v>-0.35</v>
+        <v>-0.26</v>
       </c>
       <c r="AS20" t="n">
-        <v>-1.7</v>
+        <v>-1.62</v>
       </c>
       <c r="AT20" t="n">
-        <v>-0.54</v>
+        <v>-0.63</v>
       </c>
       <c r="AU20" t="n">
-        <v>0.95</v>
+        <v>1.28</v>
       </c>
       <c r="AV20" t="n">
-        <v>3.61</v>
+        <v>2.96</v>
       </c>
       <c r="AW20" t="n">
-        <v>2.94</v>
+        <v>2.81</v>
       </c>
       <c r="AX20" t="n">
-        <v>11.18</v>
+        <v>14</v>
       </c>
       <c r="AY20" t="n">
-        <v>8.960000000000001</v>
+        <v>6.87</v>
       </c>
       <c r="AZ20" t="n">
-        <v>0.84</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="21">
@@ -3694,157 +3694,157 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>49.93</v>
+        <v>52.97</v>
       </c>
       <c r="C21" t="n">
-        <v>28.58</v>
+        <v>31.14</v>
       </c>
       <c r="D21" t="n">
-        <v>-12.55</v>
+        <v>-10.33</v>
       </c>
       <c r="E21" t="n">
-        <v>5.75</v>
+        <v>5.63</v>
       </c>
       <c r="F21" t="n">
-        <v>13.32</v>
+        <v>11.15</v>
       </c>
       <c r="G21" t="n">
-        <v>7.01</v>
+        <v>9.31</v>
       </c>
       <c r="H21" t="n">
-        <v>19.96</v>
+        <v>26.96</v>
       </c>
       <c r="I21" t="n">
-        <v>8.529999999999999</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="J21" t="n">
         <v>-0.21</v>
       </c>
       <c r="K21" t="n">
-        <v>2.1</v>
+        <v>2.01</v>
       </c>
       <c r="L21" t="n">
-        <v>3.36</v>
+        <v>3.52</v>
       </c>
       <c r="M21" t="n">
-        <v>2.19</v>
+        <v>2.36</v>
       </c>
       <c r="N21" t="n">
-        <v>3.39</v>
+        <v>3.04</v>
       </c>
       <c r="O21" t="n">
-        <v>1.9</v>
+        <v>1.49</v>
       </c>
       <c r="P21" t="n">
-        <v>2.54</v>
+        <v>2.75</v>
       </c>
       <c r="Q21" t="n">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="R21" t="n">
-        <v>4.8</v>
+        <v>4.82</v>
       </c>
       <c r="S21" t="n">
-        <v>3.11</v>
+        <v>4.01</v>
       </c>
       <c r="T21" t="n">
-        <v>2.76</v>
+        <v>3.19</v>
       </c>
       <c r="U21" t="n">
-        <v>0.21</v>
+        <v>0.23</v>
       </c>
       <c r="V21" t="n">
-        <v>1.31</v>
+        <v>1.12</v>
       </c>
       <c r="W21" t="n">
-        <v>1.74</v>
+        <v>1.99</v>
       </c>
       <c r="X21" t="n">
-        <v>3.76</v>
+        <v>3.69</v>
       </c>
       <c r="Y21" t="n">
-        <v>3.28</v>
+        <v>2.85</v>
       </c>
       <c r="Z21" t="n">
-        <v>1.92</v>
+        <v>1.36</v>
       </c>
       <c r="AA21" t="n">
-        <v>1.54</v>
+        <v>1.24</v>
       </c>
       <c r="AB21" t="n">
-        <v>1.01</v>
+        <v>0.96</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.96</v>
+        <v>0.9</v>
       </c>
       <c r="AD21" t="n">
-        <v>1.91</v>
+        <v>1.73</v>
       </c>
       <c r="AE21" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="AL21" t="n">
         <v>2.24</v>
       </c>
-      <c r="AF21" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>4.49</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>5.09</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>6.48</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>2.63</v>
-      </c>
       <c r="AM21" t="n">
-        <v>2.87</v>
+        <v>3.45</v>
       </c>
       <c r="AN21" t="n">
-        <v>3.49</v>
+        <v>3.07</v>
       </c>
       <c r="AO21" t="n">
-        <v>-1.49</v>
+        <v>-1.72</v>
       </c>
       <c r="AP21" t="n">
-        <v>-0.88</v>
+        <v>-0.96</v>
       </c>
       <c r="AQ21" t="n">
-        <v>2.79</v>
+        <v>3.5</v>
       </c>
       <c r="AR21" t="n">
-        <v>-0.45</v>
+        <v>-0.36</v>
       </c>
       <c r="AS21" t="n">
-        <v>-0.09</v>
+        <v>-0.1</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.44</v>
+        <v>0.48</v>
       </c>
       <c r="AU21" t="n">
-        <v>1.73</v>
+        <v>2.22</v>
       </c>
       <c r="AV21" t="n">
-        <v>2.94</v>
+        <v>3.07</v>
       </c>
       <c r="AW21" t="n">
-        <v>2.49</v>
+        <v>2.42</v>
       </c>
       <c r="AX21" t="n">
-        <v>12.22</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="AY21" t="n">
-        <v>7.86</v>
+        <v>8.31</v>
       </c>
       <c r="AZ21" t="n">
-        <v>3.16</v>
+        <v>2.67</v>
       </c>
     </row>
     <row r="22">
@@ -3854,157 +3854,157 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>30.54</v>
+        <v>29.53</v>
       </c>
       <c r="C22" t="n">
-        <v>11.25</v>
+        <v>12.92</v>
       </c>
       <c r="D22" t="n">
-        <v>-2.04</v>
+        <v>-2.56</v>
       </c>
       <c r="E22" t="n">
-        <v>1.54</v>
+        <v>1.61</v>
       </c>
       <c r="F22" t="n">
-        <v>10.74</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="G22" t="n">
-        <v>9.08</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="H22" t="n">
-        <v>11.55</v>
+        <v>12.3</v>
       </c>
       <c r="I22" t="n">
-        <v>10.12</v>
+        <v>11.11</v>
       </c>
       <c r="J22" t="n">
-        <v>3.79</v>
+        <v>4.95</v>
       </c>
       <c r="K22" t="n">
-        <v>3.57</v>
+        <v>3.55</v>
       </c>
       <c r="L22" t="n">
-        <v>4.89</v>
+        <v>3.61</v>
       </c>
       <c r="M22" t="n">
-        <v>4.35</v>
+        <v>3.87</v>
       </c>
       <c r="N22" t="n">
-        <v>3.01</v>
+        <v>2.83</v>
       </c>
       <c r="O22" t="n">
-        <v>3.55</v>
+        <v>3.81</v>
       </c>
       <c r="P22" t="n">
-        <v>6.66</v>
+        <v>6.22</v>
       </c>
       <c r="Q22" t="n">
-        <v>6.83</v>
+        <v>8.67</v>
       </c>
       <c r="R22" t="n">
-        <v>5.23</v>
+        <v>5.2</v>
       </c>
       <c r="S22" t="n">
-        <v>3.42</v>
+        <v>3.45</v>
       </c>
       <c r="T22" t="n">
-        <v>3.34</v>
+        <v>4.15</v>
       </c>
       <c r="U22" t="n">
-        <v>3.5</v>
+        <v>2.96</v>
       </c>
       <c r="V22" t="n">
-        <v>4.78</v>
+        <v>4.15</v>
       </c>
       <c r="W22" t="n">
-        <v>3.22</v>
+        <v>2.8</v>
       </c>
       <c r="X22" t="n">
-        <v>3.13</v>
+        <v>3.32</v>
       </c>
       <c r="Y22" t="n">
-        <v>2.29</v>
+        <v>2.11</v>
       </c>
       <c r="Z22" t="n">
-        <v>1.9</v>
+        <v>2.14</v>
       </c>
       <c r="AA22" t="n">
-        <v>2.55</v>
+        <v>2.27</v>
       </c>
       <c r="AB22" t="n">
-        <v>1.85</v>
+        <v>1.61</v>
       </c>
       <c r="AC22" t="n">
-        <v>3.16</v>
+        <v>2.91</v>
       </c>
       <c r="AD22" t="n">
-        <v>2.24</v>
+        <v>2.37</v>
       </c>
       <c r="AE22" t="n">
-        <v>2.57</v>
+        <v>2.44</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.48</v>
+        <v>1.42</v>
       </c>
       <c r="AG22" t="n">
-        <v>1.73</v>
+        <v>1.23</v>
       </c>
       <c r="AH22" t="n">
-        <v>1.68</v>
+        <v>2.08</v>
       </c>
       <c r="AI22" t="n">
-        <v>4.3</v>
+        <v>4.86</v>
       </c>
       <c r="AJ22" t="n">
-        <v>9.880000000000001</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="AK22" t="n">
-        <v>3.39</v>
+        <v>2.66</v>
       </c>
       <c r="AL22" t="n">
-        <v>-0.92</v>
+        <v>-0.86</v>
       </c>
       <c r="AM22" t="n">
-        <v>3.79</v>
+        <v>4.41</v>
       </c>
       <c r="AN22" t="n">
-        <v>2.32</v>
+        <v>3.33</v>
       </c>
       <c r="AO22" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="AQ22" t="n">
         <v>1.18</v>
       </c>
-      <c r="AP22" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>1.26</v>
-      </c>
       <c r="AR22" t="n">
-        <v>-0.3</v>
+        <v>-0.25</v>
       </c>
       <c r="AS22" t="n">
-        <v>-0.53</v>
+        <v>-0.59</v>
       </c>
       <c r="AT22" t="n">
-        <v>0.37</v>
+        <v>0.43</v>
       </c>
       <c r="AU22" t="n">
-        <v>1.64</v>
+        <v>1.33</v>
       </c>
       <c r="AV22" t="n">
-        <v>2.6</v>
+        <v>2.22</v>
       </c>
       <c r="AW22" t="n">
-        <v>2.39</v>
+        <v>1.93</v>
       </c>
       <c r="AX22" t="n">
-        <v>15.28</v>
+        <v>10.45</v>
       </c>
       <c r="AY22" t="n">
-        <v>8.390000000000001</v>
+        <v>7.88</v>
       </c>
       <c r="AZ22" t="n">
-        <v>0.47</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="23">
@@ -4014,157 +4014,157 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>20.22</v>
+        <v>19.59</v>
       </c>
       <c r="C23" t="n">
-        <v>13.2</v>
+        <v>16.14</v>
       </c>
       <c r="D23" t="n">
-        <v>22.02</v>
+        <v>23.02</v>
       </c>
       <c r="E23" t="n">
-        <v>55.93</v>
+        <v>51.17</v>
       </c>
       <c r="F23" t="n">
-        <v>5.56</v>
+        <v>5.06</v>
       </c>
       <c r="G23" t="n">
-        <v>5.4</v>
+        <v>5.31</v>
       </c>
       <c r="H23" t="n">
-        <v>9.869999999999999</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="I23" t="n">
-        <v>3.78</v>
+        <v>4.8</v>
       </c>
       <c r="J23" t="n">
-        <v>2.36</v>
+        <v>2.19</v>
       </c>
       <c r="K23" t="n">
-        <v>2.12</v>
+        <v>1.6</v>
       </c>
       <c r="L23" t="n">
-        <v>2.96</v>
+        <v>2.7</v>
       </c>
       <c r="M23" t="n">
-        <v>1.93</v>
+        <v>2.18</v>
       </c>
       <c r="N23" t="n">
-        <v>6.81</v>
+        <v>6.25</v>
       </c>
       <c r="O23" t="n">
-        <v>-2.24</v>
+        <v>-2.2</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>3.4</v>
+        <v>3.77</v>
       </c>
       <c r="R23" t="n">
-        <v>2.32</v>
+        <v>1.61</v>
       </c>
       <c r="S23" t="n">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="T23" t="n">
-        <v>0.19</v>
+        <v>0.22</v>
       </c>
       <c r="U23" t="n">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="V23" t="n">
-        <v>6.66</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="W23" t="n">
-        <v>7.3</v>
+        <v>5.81</v>
       </c>
       <c r="X23" t="n">
-        <v>-2.86</v>
+        <v>-2.15</v>
       </c>
       <c r="Y23" t="n">
-        <v>3.59</v>
+        <v>3.76</v>
       </c>
       <c r="Z23" t="n">
-        <v>-0.36</v>
+        <v>-0.25</v>
       </c>
       <c r="AA23" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AB23" t="n">
-        <v>2.52</v>
+        <v>2.97</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.83</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
       </c>
       <c r="AE23" t="n">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AF23" t="n">
-        <v>0.48</v>
+        <v>0.43</v>
       </c>
       <c r="AG23" t="n">
-        <v>2.66</v>
+        <v>2.28</v>
       </c>
       <c r="AH23" t="n">
-        <v>2.3</v>
+        <v>1.97</v>
       </c>
       <c r="AI23" t="n">
-        <v>4.49</v>
+        <v>3.46</v>
       </c>
       <c r="AJ23" t="n">
-        <v>4.76</v>
+        <v>4.6</v>
       </c>
       <c r="AK23" t="n">
-        <v>1.81</v>
+        <v>1.56</v>
       </c>
       <c r="AL23" t="n">
-        <v>-0.98</v>
+        <v>-0.87</v>
       </c>
       <c r="AM23" t="n">
-        <v>2.76</v>
+        <v>3.52</v>
       </c>
       <c r="AN23" t="n">
-        <v>0.95</v>
+        <v>1.17</v>
       </c>
       <c r="AO23" t="n">
-        <v>-0.89</v>
+        <v>-0.95</v>
       </c>
       <c r="AP23" t="n">
-        <v>-0.45</v>
+        <v>-0.46</v>
       </c>
       <c r="AQ23" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="AR23" t="n">
-        <v>-0.42</v>
+        <v>-0.33</v>
       </c>
       <c r="AS23" t="n">
-        <v>0.22</v>
+        <v>0.17</v>
       </c>
       <c r="AT23" t="n">
         <v>0</v>
       </c>
       <c r="AU23" t="n">
-        <v>1.72</v>
+        <v>1.94</v>
       </c>
       <c r="AV23" t="n">
-        <v>3.08</v>
+        <v>3.65</v>
       </c>
       <c r="AW23" t="n">
-        <v>2.91</v>
+        <v>2.52</v>
       </c>
       <c r="AX23" t="n">
-        <v>9.390000000000001</v>
+        <v>11.89</v>
       </c>
       <c r="AY23" t="n">
-        <v>7.28</v>
+        <v>7</v>
       </c>
       <c r="AZ23" t="n">
-        <v>2.11</v>
+        <v>2.29</v>
       </c>
     </row>
     <row r="24">
@@ -4174,157 +4174,157 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>21.65</v>
+        <v>21.02</v>
       </c>
       <c r="C24" t="n">
-        <v>11.71</v>
+        <v>13.32</v>
       </c>
       <c r="D24" t="n">
-        <v>3.5</v>
+        <v>4.66</v>
       </c>
       <c r="E24" t="n">
-        <v>3.24</v>
+        <v>2.78</v>
       </c>
       <c r="F24" t="n">
-        <v>6.65</v>
+        <v>6.93</v>
       </c>
       <c r="G24" t="n">
-        <v>9.43</v>
+        <v>10.1</v>
       </c>
       <c r="H24" t="n">
-        <v>12.74</v>
+        <v>10.36</v>
       </c>
       <c r="I24" t="n">
-        <v>11.99</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="J24" t="n">
-        <v>5.73</v>
+        <v>5.22</v>
       </c>
       <c r="K24" t="n">
-        <v>2.95</v>
+        <v>3.56</v>
       </c>
       <c r="L24" t="n">
-        <v>3.47</v>
+        <v>2.45</v>
       </c>
       <c r="M24" t="n">
-        <v>3.49</v>
+        <v>3.82</v>
       </c>
       <c r="N24" t="n">
-        <v>2.77</v>
+        <v>2.25</v>
       </c>
       <c r="O24" t="n">
-        <v>4.56</v>
+        <v>3.63</v>
       </c>
       <c r="P24" t="n">
-        <v>3.03</v>
+        <v>3.89</v>
       </c>
       <c r="Q24" t="n">
-        <v>5.48</v>
+        <v>6.4</v>
       </c>
       <c r="R24" t="n">
-        <v>4.1</v>
+        <v>5.24</v>
       </c>
       <c r="S24" t="n">
-        <v>4.93</v>
+        <v>5.33</v>
       </c>
       <c r="T24" t="n">
-        <v>2.62</v>
+        <v>2.13</v>
       </c>
       <c r="U24" t="n">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="V24" t="n">
-        <v>3.09</v>
+        <v>2.73</v>
       </c>
       <c r="W24" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="X24" t="n">
-        <v>3.7</v>
+        <v>3.45</v>
       </c>
       <c r="Y24" t="n">
-        <v>3.4</v>
+        <v>3.82</v>
       </c>
       <c r="Z24" t="n">
-        <v>2.41</v>
+        <v>2.82</v>
       </c>
       <c r="AA24" t="n">
-        <v>2.12</v>
+        <v>1.75</v>
       </c>
       <c r="AB24" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="AC24" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AD24" t="n">
-        <v>0.64</v>
+        <v>0.53</v>
       </c>
       <c r="AE24" t="n">
-        <v>1.17</v>
+        <v>1.05</v>
       </c>
       <c r="AF24" t="n">
-        <v>0.41</v>
+        <v>0.44</v>
       </c>
       <c r="AG24" t="n">
-        <v>1.53</v>
+        <v>1.8</v>
       </c>
       <c r="AH24" t="n">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="AI24" t="n">
-        <v>1.49</v>
+        <v>1.97</v>
       </c>
       <c r="AJ24" t="n">
-        <v>5.12</v>
+        <v>4.35</v>
       </c>
       <c r="AK24" t="n">
-        <v>3.4</v>
+        <v>4.29</v>
       </c>
       <c r="AL24" t="n">
-        <v>-0.5600000000000001</v>
+        <v>-0.57</v>
       </c>
       <c r="AM24" t="n">
-        <v>2.57</v>
+        <v>2.17</v>
       </c>
       <c r="AN24" t="n">
-        <v>3.26</v>
+        <v>3.01</v>
       </c>
       <c r="AO24" t="n">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.08</v>
+        <v>0.87</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.37</v>
+        <v>1.63</v>
       </c>
       <c r="AR24" t="n">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="AS24" t="n">
         <v>0.11</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="AU24" t="n">
-        <v>0.31</v>
+        <v>0.27</v>
       </c>
       <c r="AV24" t="n">
-        <v>3.53</v>
+        <v>3.27</v>
       </c>
       <c r="AW24" t="n">
-        <v>2.47</v>
+        <v>1.87</v>
       </c>
       <c r="AX24" t="n">
-        <v>12.4</v>
+        <v>13.96</v>
       </c>
       <c r="AY24" t="n">
-        <v>6.44</v>
+        <v>6.42</v>
       </c>
       <c r="AZ24" t="n">
-        <v>0.55</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="25">

--- a/obfuscated/historicalcpi_P.xlsx
+++ b/obfuscated/historicalcpi_P.xlsx
@@ -707,154 +707,154 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1746.1</v>
+        <v>1934.48</v>
       </c>
       <c r="D2" t="n">
-        <v>2338.75</v>
+        <v>2279.65</v>
       </c>
       <c r="E2" t="n">
-        <v>2271.16</v>
+        <v>2353.85</v>
       </c>
       <c r="F2" t="n">
-        <v>1725.62</v>
+        <v>1812.62</v>
       </c>
       <c r="G2" t="n">
-        <v>1967.52</v>
+        <v>2023.69</v>
       </c>
       <c r="H2" t="n">
-        <v>2161.9</v>
+        <v>2015.4</v>
       </c>
       <c r="I2" t="n">
-        <v>2117.25</v>
+        <v>1655.23</v>
       </c>
       <c r="J2" t="n">
-        <v>1803.82</v>
+        <v>1853.38</v>
       </c>
       <c r="K2" t="n">
-        <v>1894.82</v>
+        <v>1828.35</v>
       </c>
       <c r="L2" t="n">
-        <v>1974.16</v>
+        <v>1761.66</v>
       </c>
       <c r="M2" t="n">
-        <v>1795.85</v>
+        <v>1951.28</v>
       </c>
       <c r="N2" t="n">
-        <v>1981.91</v>
+        <v>1959.61</v>
       </c>
       <c r="O2" t="n">
-        <v>2052.38</v>
+        <v>2330.28</v>
       </c>
       <c r="P2" t="n">
-        <v>1732.19</v>
+        <v>1644.19</v>
       </c>
       <c r="Q2" t="n">
-        <v>1970.8</v>
+        <v>2033.63</v>
       </c>
       <c r="R2" t="n">
-        <v>2183.24</v>
+        <v>1681.84</v>
       </c>
       <c r="S2" t="n">
-        <v>2363.3</v>
+        <v>1679.11</v>
       </c>
       <c r="T2" t="n">
-        <v>1680.34</v>
+        <v>2009.54</v>
       </c>
       <c r="U2" t="n">
-        <v>2091.96</v>
+        <v>1883.38</v>
       </c>
       <c r="V2" t="n">
-        <v>2231.38</v>
+        <v>1893.08</v>
       </c>
       <c r="W2" t="n">
-        <v>1982.37</v>
+        <v>1969.86</v>
       </c>
       <c r="X2" t="n">
-        <v>1700.72</v>
+        <v>2240.91</v>
       </c>
       <c r="Y2" t="n">
-        <v>2341.67</v>
+        <v>1788.61</v>
       </c>
       <c r="Z2" t="n">
-        <v>1907.87</v>
+        <v>2226.87</v>
       </c>
       <c r="AA2" t="n">
-        <v>2329.27</v>
+        <v>2030.38</v>
       </c>
       <c r="AB2" t="n">
-        <v>2266.67</v>
+        <v>1648.69</v>
       </c>
       <c r="AC2" t="n">
-        <v>1699.23</v>
+        <v>2234.84</v>
       </c>
       <c r="AD2" t="n">
-        <v>1639.41</v>
+        <v>2383.62</v>
       </c>
       <c r="AE2" t="n">
-        <v>1810.58</v>
+        <v>1809.52</v>
       </c>
       <c r="AF2" t="n">
-        <v>2317.75</v>
+        <v>1723.23</v>
       </c>
       <c r="AG2" t="n">
-        <v>2263.34</v>
+        <v>1717.21</v>
       </c>
       <c r="AH2" t="n">
-        <v>2207.56</v>
+        <v>1951.31</v>
       </c>
       <c r="AI2" t="n">
-        <v>2188.87</v>
+        <v>2373.69</v>
       </c>
       <c r="AJ2" t="n">
-        <v>2184.24</v>
+        <v>2012.05</v>
       </c>
       <c r="AK2" t="n">
-        <v>1743.48</v>
+        <v>2100.07</v>
       </c>
       <c r="AL2" t="n">
-        <v>2075.23</v>
+        <v>2151.71</v>
       </c>
       <c r="AM2" t="n">
-        <v>1642.86</v>
+        <v>1722.3</v>
       </c>
       <c r="AN2" t="n">
-        <v>2225.14</v>
+        <v>1632.49</v>
       </c>
       <c r="AO2" t="n">
-        <v>1744.76</v>
+        <v>1881.07</v>
       </c>
       <c r="AP2" t="n">
-        <v>2413.71</v>
+        <v>1895.32</v>
       </c>
       <c r="AQ2" t="n">
-        <v>2366.4</v>
+        <v>2259.27</v>
       </c>
       <c r="AR2" t="n">
-        <v>1645.41</v>
+        <v>2360.66</v>
       </c>
       <c r="AS2" t="n">
-        <v>1765.43</v>
+        <v>1643.41</v>
       </c>
       <c r="AT2" t="n">
-        <v>1712.62</v>
+        <v>2097.43</v>
       </c>
       <c r="AU2" t="n">
-        <v>1965.4</v>
+        <v>2102.82</v>
       </c>
       <c r="AV2" t="n">
-        <v>1957.87</v>
+        <v>2318.16</v>
       </c>
       <c r="AW2" t="n">
-        <v>2229.22</v>
+        <v>2326.01</v>
       </c>
       <c r="AX2" t="n">
-        <v>1781.1</v>
+        <v>2265.8</v>
       </c>
       <c r="AY2" t="n">
-        <v>2200.44</v>
+        <v>1738.02</v>
       </c>
       <c r="AZ2" t="n">
-        <v>1762.85</v>
+        <v>2198.22</v>
       </c>
     </row>
     <row r="3">
@@ -864,157 +864,157 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.49</v>
+        <v>13.33</v>
       </c>
       <c r="C3" t="n">
-        <v>8.44</v>
+        <v>7.29</v>
       </c>
       <c r="D3" t="n">
-        <v>2.45</v>
+        <v>3.25</v>
       </c>
       <c r="E3" t="n">
-        <v>7.35</v>
+        <v>5.4</v>
       </c>
       <c r="F3" t="n">
-        <v>10.65</v>
+        <v>9.09</v>
       </c>
       <c r="G3" t="n">
-        <v>11.3</v>
+        <v>9.93</v>
       </c>
       <c r="H3" t="n">
-        <v>10.21</v>
+        <v>8.4</v>
       </c>
       <c r="I3" t="n">
-        <v>6.72</v>
+        <v>6.67</v>
       </c>
       <c r="J3" t="n">
-        <v>4.03</v>
+        <v>3.83</v>
       </c>
       <c r="K3" t="n">
-        <v>2.14</v>
+        <v>2.24</v>
       </c>
       <c r="L3" t="n">
-        <v>4.27</v>
+        <v>3.89</v>
       </c>
       <c r="M3" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="N3" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="O3" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="P3" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>6.39</v>
+      </c>
+      <c r="R3" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="S3" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="U3" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="W3" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="X3" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="AD3" t="n">
         <v>2.12</v>
       </c>
-      <c r="N3" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="O3" t="n">
-        <v>4.91</v>
-      </c>
-      <c r="P3" t="n">
-        <v>4.82</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>6.67</v>
-      </c>
-      <c r="R3" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="S3" t="n">
-        <v>3.31</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="U3" t="n">
+      <c r="AE3" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AQ3" t="n">
         <v>2.15</v>
       </c>
-      <c r="V3" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="W3" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="X3" t="n">
-        <v>2.81</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="AE3" t="n">
+      <c r="AR3" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AU3" t="n">
         <v>1.85</v>
       </c>
-      <c r="AF3" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>2.31</v>
-      </c>
-      <c r="AH3" t="n">
+      <c r="AV3" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>10.81</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="AZ3" t="n">
         <v>2.61</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>5.31</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>9.970000000000001</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>6.89</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>2.69</v>
       </c>
     </row>
     <row r="4">
@@ -1024,157 +1024,157 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13.19</v>
+        <v>10.72</v>
       </c>
       <c r="C4" t="n">
-        <v>9.119999999999999</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>5.66</v>
+        <v>7.11</v>
       </c>
       <c r="E4" t="n">
-        <v>8.619999999999999</v>
+        <v>7.22</v>
       </c>
       <c r="F4" t="n">
-        <v>8.82</v>
+        <v>10.05</v>
       </c>
       <c r="G4" t="n">
-        <v>12.36</v>
+        <v>9.23</v>
       </c>
       <c r="H4" t="n">
-        <v>10.43</v>
+        <v>11.27</v>
       </c>
       <c r="I4" t="n">
-        <v>8.94</v>
+        <v>10.6</v>
       </c>
       <c r="J4" t="n">
-        <v>5.29</v>
+        <v>6.39</v>
       </c>
       <c r="K4" t="n">
-        <v>4.48</v>
+        <v>4.14</v>
       </c>
       <c r="L4" t="n">
-        <v>4.23</v>
+        <v>3.85</v>
       </c>
       <c r="M4" t="n">
-        <v>3.81</v>
+        <v>4.06</v>
       </c>
       <c r="N4" t="n">
-        <v>3.23</v>
+        <v>3.88</v>
       </c>
       <c r="O4" t="n">
-        <v>3.41</v>
+        <v>3.93</v>
       </c>
       <c r="P4" t="n">
-        <v>3.4</v>
+        <v>4.69</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.2</v>
+        <v>4.35</v>
       </c>
       <c r="R4" t="n">
-        <v>4.57</v>
+        <v>4.19</v>
       </c>
       <c r="S4" t="n">
-        <v>3.95</v>
+        <v>3.39</v>
       </c>
       <c r="T4" t="n">
-        <v>1.82</v>
+        <v>2.19</v>
       </c>
       <c r="U4" t="n">
-        <v>1.98</v>
+        <v>2.12</v>
       </c>
       <c r="V4" t="n">
-        <v>1.45</v>
+        <v>2</v>
       </c>
       <c r="W4" t="n">
-        <v>2.5</v>
+        <v>2.74</v>
       </c>
       <c r="X4" t="n">
-        <v>2.46</v>
+        <v>2.01</v>
       </c>
       <c r="Y4" t="n">
-        <v>2.56</v>
+        <v>3.02</v>
       </c>
       <c r="Z4" t="n">
-        <v>2.38</v>
+        <v>2.58</v>
       </c>
       <c r="AA4" t="n">
-        <v>2.32</v>
+        <v>2.51</v>
       </c>
       <c r="AB4" t="n">
-        <v>2.28</v>
+        <v>2.76</v>
       </c>
       <c r="AC4" t="n">
-        <v>3.42</v>
+        <v>3.44</v>
       </c>
       <c r="AD4" t="n">
-        <v>2.69</v>
+        <v>2.15</v>
       </c>
       <c r="AE4" t="n">
-        <v>2.42</v>
+        <v>2.37</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.28</v>
+        <v>2.8</v>
       </c>
       <c r="AG4" t="n">
-        <v>3.67</v>
+        <v>3.09</v>
       </c>
       <c r="AH4" t="n">
-        <v>2.84</v>
+        <v>3.01</v>
       </c>
       <c r="AI4" t="n">
-        <v>4.27</v>
+        <v>4.15</v>
       </c>
       <c r="AJ4" t="n">
-        <v>3.66</v>
+        <v>5.17</v>
       </c>
       <c r="AK4" t="n">
-        <v>3.2</v>
+        <v>3.71</v>
       </c>
       <c r="AL4" t="n">
-        <v>1.09</v>
+        <v>1.12</v>
       </c>
       <c r="AM4" t="n">
-        <v>1.86</v>
+        <v>2.65</v>
       </c>
       <c r="AN4" t="n">
-        <v>2.75</v>
+        <v>2.26</v>
       </c>
       <c r="AO4" t="n">
-        <v>2.25</v>
+        <v>2.37</v>
       </c>
       <c r="AP4" t="n">
-        <v>2.66</v>
+        <v>2.08</v>
       </c>
       <c r="AQ4" t="n">
-        <v>3.14</v>
+        <v>2.64</v>
       </c>
       <c r="AR4" t="n">
-        <v>2.74</v>
+        <v>2.67</v>
       </c>
       <c r="AS4" t="n">
-        <v>2.42</v>
+        <v>2.17</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="AU4" t="n">
-        <v>2.6</v>
+        <v>2.49</v>
       </c>
       <c r="AV4" t="n">
-        <v>3.85</v>
+        <v>4.01</v>
       </c>
       <c r="AW4" t="n">
-        <v>5.29</v>
+        <v>5.16</v>
       </c>
       <c r="AX4" t="n">
-        <v>7.6</v>
+        <v>7.45</v>
       </c>
       <c r="AY4" t="n">
-        <v>7.6</v>
+        <v>6.92</v>
       </c>
       <c r="AZ4" t="n">
-        <v>4.13</v>
+        <v>3.97</v>
       </c>
     </row>
     <row r="5">
@@ -1184,157 +1184,157 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>17.82</v>
+        <v>13.48</v>
       </c>
       <c r="C5" t="n">
-        <v>9.390000000000001</v>
+        <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>1.98</v>
+        <v>1.78</v>
       </c>
       <c r="E5" t="n">
-        <v>6.04</v>
+        <v>5.56</v>
       </c>
       <c r="F5" t="n">
-        <v>12.18</v>
+        <v>12.38</v>
       </c>
       <c r="G5" t="n">
-        <v>10.23</v>
+        <v>9.19</v>
       </c>
       <c r="H5" t="n">
-        <v>8.23</v>
+        <v>7.86</v>
       </c>
       <c r="I5" t="n">
-        <v>7.43</v>
+        <v>7.79</v>
       </c>
       <c r="J5" t="n">
-        <v>4.09</v>
+        <v>3.9</v>
       </c>
       <c r="K5" t="n">
-        <v>0.9</v>
+        <v>0.97</v>
       </c>
       <c r="L5" t="n">
-        <v>3.74</v>
+        <v>3.27</v>
       </c>
       <c r="M5" t="n">
-        <v>1.51</v>
+        <v>1.35</v>
       </c>
       <c r="N5" t="n">
-        <v>3.35</v>
+        <v>2.45</v>
       </c>
       <c r="O5" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="R5" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="S5" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="V5" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="W5" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="X5" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>5.13</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>-1.27</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>12.76</v>
+      </c>
+      <c r="AY5" t="n">
         <v>4.64</v>
       </c>
-      <c r="P5" t="n">
-        <v>3.79</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>6.12</v>
-      </c>
-      <c r="R5" t="n">
-        <v>6.77</v>
-      </c>
-      <c r="S5" t="n">
-        <v>2.89</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="U5" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="V5" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="W5" t="n">
-        <v>3.83</v>
-      </c>
-      <c r="X5" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>2.73</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>3.77</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>3.43</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>5.46</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>5.56</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>-1.21</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>-0.18</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>3.51</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>3.19</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>10.74</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>5.49</v>
-      </c>
       <c r="AZ5" t="n">
-        <v>1.41</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="6">
@@ -1344,157 +1344,157 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="C6" t="n">
-        <v>7.72</v>
+        <v>8.58</v>
       </c>
       <c r="D6" t="n">
-        <v>0.74</v>
+        <v>0.79</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.49</v>
+        <v>-0.59</v>
       </c>
       <c r="F6" t="n">
-        <v>16.18</v>
+        <v>15.44</v>
       </c>
       <c r="G6" t="n">
-        <v>16.32</v>
+        <v>17.34</v>
       </c>
       <c r="H6" t="n">
-        <v>4.02</v>
+        <v>4.19</v>
       </c>
       <c r="I6" t="n">
-        <v>3.76</v>
+        <v>4.18</v>
       </c>
       <c r="J6" t="n">
         <v>4.53</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.71</v>
+        <v>-0.64</v>
       </c>
       <c r="L6" t="n">
-        <v>1.62</v>
+        <v>1.56</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.44</v>
+        <v>-0.46</v>
       </c>
       <c r="N6" t="n">
-        <v>3.89</v>
+        <v>5.1</v>
       </c>
       <c r="O6" t="n">
-        <v>5.51</v>
+        <v>5.23</v>
       </c>
       <c r="P6" t="n">
-        <v>2.81</v>
+        <v>3.08</v>
       </c>
       <c r="Q6" t="n">
-        <v>4.8</v>
+        <v>5.4</v>
       </c>
       <c r="R6" t="n">
-        <v>6.29</v>
+        <v>8.44</v>
       </c>
       <c r="S6" t="n">
-        <v>2.67</v>
+        <v>2.06</v>
       </c>
       <c r="T6" t="n">
-        <v>-0.83</v>
+        <v>-0.7</v>
       </c>
       <c r="U6" t="n">
-        <v>3.13</v>
+        <v>3.6</v>
       </c>
       <c r="V6" t="n">
-        <v>1.37</v>
+        <v>1.65</v>
       </c>
       <c r="W6" t="n">
-        <v>0.8</v>
+        <v>1.03</v>
       </c>
       <c r="X6" t="n">
-        <v>3.28</v>
+        <v>3.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>3.24</v>
+        <v>2.96</v>
       </c>
       <c r="Z6" t="n">
-        <v>-0.8</v>
+        <v>-0.76</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.67</v>
+        <v>0.66</v>
       </c>
       <c r="AB6" t="n">
-        <v>3.71</v>
+        <v>5.15</v>
       </c>
       <c r="AC6" t="n">
-        <v>3.71</v>
+        <v>3.68</v>
       </c>
       <c r="AD6" t="n">
         <v>0.54</v>
       </c>
       <c r="AE6" t="n">
-        <v>4.64</v>
+        <v>4.58</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.28</v>
+        <v>6.57</v>
       </c>
       <c r="AG6" t="n">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AI6" t="n">
-        <v>3.58</v>
+        <v>3.71</v>
       </c>
       <c r="AJ6" t="n">
-        <v>3.37</v>
+        <v>3.6</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.57</v>
+        <v>0.51</v>
       </c>
       <c r="AL6" t="n">
-        <v>1.76</v>
+        <v>1.59</v>
       </c>
       <c r="AM6" t="n">
-        <v>8.279999999999999</v>
+        <v>8.68</v>
       </c>
       <c r="AN6" t="n">
-        <v>4.13</v>
+        <v>3.73</v>
       </c>
       <c r="AO6" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="AP6" t="n">
-        <v>8.24</v>
+        <v>6.83</v>
       </c>
       <c r="AQ6" t="n">
-        <v>2.25</v>
+        <v>2.01</v>
       </c>
       <c r="AR6" t="n">
-        <v>-3.41</v>
+        <v>-2.96</v>
       </c>
       <c r="AS6" t="n">
         <v>-0.09</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.72</v>
+        <v>0.6</v>
       </c>
       <c r="AU6" t="n">
-        <v>0.95</v>
+        <v>0.88</v>
       </c>
       <c r="AV6" t="n">
-        <v>7.02</v>
+        <v>5.38</v>
       </c>
       <c r="AW6" t="n">
-        <v>6.47</v>
+        <v>5.72</v>
       </c>
       <c r="AX6" t="n">
-        <v>7.72</v>
+        <v>8.68</v>
       </c>
       <c r="AY6" t="n">
-        <v>2.14</v>
+        <v>1.78</v>
       </c>
       <c r="AZ6" t="n">
-        <v>1.59</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="7">
@@ -1504,157 +1504,157 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.68</v>
+        <v>1.5</v>
       </c>
       <c r="C7" t="n">
-        <v>6.98</v>
+        <v>9.26</v>
       </c>
       <c r="D7" t="n">
         <v>0.17</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.34</v>
+        <v>-2.66</v>
       </c>
       <c r="F7" t="n">
-        <v>16.87</v>
+        <v>15.86</v>
       </c>
       <c r="G7" t="n">
-        <v>13.76</v>
+        <v>18.27</v>
       </c>
       <c r="H7" t="n">
-        <v>3.05</v>
+        <v>2.37</v>
       </c>
       <c r="I7" t="n">
-        <v>3.05</v>
+        <v>3.33</v>
       </c>
       <c r="J7" t="n">
-        <v>5.64</v>
+        <v>5.47</v>
       </c>
       <c r="K7" t="n">
-        <v>-1.37</v>
+        <v>-1.1</v>
       </c>
       <c r="L7" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="M7" t="n">
+        <v>-0.76</v>
+      </c>
+      <c r="N7" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="O7" t="n">
+        <v>6.93</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="R7" t="n">
+        <v>8.960000000000001</v>
+      </c>
+      <c r="S7" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="T7" t="n">
+        <v>-1.43</v>
+      </c>
+      <c r="U7" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="X7" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>-2.25</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>6.42</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>8.43</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>9.359999999999999</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>8.99</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>-4.36</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>-0.59</v>
+      </c>
+      <c r="AT7" t="n">
         <v>0.36</v>
       </c>
-      <c r="M7" t="n">
-        <v>-0.99</v>
-      </c>
-      <c r="N7" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="O7" t="n">
-        <v>8.35</v>
-      </c>
-      <c r="P7" t="n">
+      <c r="AU7" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>6.54</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>8.09</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>8.76</v>
+      </c>
+      <c r="AY7" t="n">
         <v>2.14</v>
       </c>
-      <c r="Q7" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="R7" t="n">
-        <v>12.01</v>
-      </c>
-      <c r="S7" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="T7" t="n">
-        <v>-1.15</v>
-      </c>
-      <c r="U7" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="X7" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>-1.8</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>4.94</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>4.86</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>6.07</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>10.03</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>-0.54</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>8.48</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>4.01</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>8.640000000000001</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>3.13</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>-4.88</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>-0.71</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>6.45</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>8.98</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>9.81</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>1.7</v>
-      </c>
       <c r="AZ7" t="n">
-        <v>2.39</v>
+        <v>3.16</v>
       </c>
     </row>
     <row r="8">
@@ -1664,157 +1664,157 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.6</v>
+        <v>3.11</v>
       </c>
       <c r="C8" t="n">
-        <v>1.18</v>
+        <v>0.9</v>
       </c>
       <c r="D8" t="n">
-        <v>-3.39</v>
+        <v>-3.65</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.65</v>
+        <v>-0.68</v>
       </c>
       <c r="F8" t="n">
-        <v>26.25</v>
+        <v>25.43</v>
       </c>
       <c r="G8" t="n">
-        <v>31.56</v>
+        <v>29.59</v>
       </c>
       <c r="H8" t="n">
-        <v>6.22</v>
+        <v>6.62</v>
       </c>
       <c r="I8" t="n">
-        <v>0.66</v>
+        <v>0.93</v>
       </c>
       <c r="J8" t="n">
-        <v>1.66</v>
+        <v>1.23</v>
       </c>
       <c r="K8" t="n">
-        <v>-1.27</v>
+        <v>-1.55</v>
       </c>
       <c r="L8" t="n">
-        <v>1.16</v>
+        <v>1.19</v>
       </c>
       <c r="M8" t="n">
-        <v>-1.98</v>
+        <v>-2.5</v>
       </c>
       <c r="N8" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="O8" t="n">
-        <v>6.91</v>
+        <v>8.93</v>
       </c>
       <c r="P8" t="n">
-        <v>4.45</v>
+        <v>6.15</v>
       </c>
       <c r="Q8" t="n">
-        <v>5.49</v>
+        <v>6.28</v>
       </c>
       <c r="R8" t="n">
-        <v>9.49</v>
+        <v>7.21</v>
       </c>
       <c r="S8" t="n">
-        <v>2.25</v>
+        <v>2.34</v>
       </c>
       <c r="T8" t="n">
-        <v>-0.12</v>
+        <v>-0.1</v>
       </c>
       <c r="U8" t="n">
-        <v>3.07</v>
+        <v>3.93</v>
       </c>
       <c r="V8" t="n">
-        <v>-0.73</v>
+        <v>-0.92</v>
       </c>
       <c r="W8" t="n">
-        <v>-0.77</v>
+        <v>-0.78</v>
       </c>
       <c r="X8" t="n">
-        <v>-0.34</v>
+        <v>-0.29</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.39</v>
+        <v>2.02</v>
       </c>
       <c r="Z8" t="n">
-        <v>-0.17</v>
+        <v>-0.19</v>
       </c>
       <c r="AA8" t="n">
-        <v>1.78</v>
+        <v>2.14</v>
       </c>
       <c r="AB8" t="n">
-        <v>7.3</v>
+        <v>5.92</v>
       </c>
       <c r="AC8" t="n">
-        <v>7.21</v>
+        <v>7.68</v>
       </c>
       <c r="AD8" t="n">
         <v>0.11</v>
       </c>
       <c r="AE8" t="n">
-        <v>9.369999999999999</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.81</v>
+        <v>11.08</v>
       </c>
       <c r="AG8" t="n">
-        <v>3.02</v>
+        <v>2.2</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AI8" t="n">
-        <v>5.21</v>
+        <v>4.47</v>
       </c>
       <c r="AJ8" t="n">
-        <v>5.32</v>
+        <v>4.48</v>
       </c>
       <c r="AK8" t="n">
-        <v>-1</v>
+        <v>-1.12</v>
       </c>
       <c r="AL8" t="n">
-        <v>3</v>
+        <v>2.34</v>
       </c>
       <c r="AM8" t="n">
-        <v>11.67</v>
+        <v>10.29</v>
       </c>
       <c r="AN8" t="n">
-        <v>7.12</v>
+        <v>6.17</v>
       </c>
       <c r="AO8" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AP8" t="n">
-        <v>11.81</v>
+        <v>13.89</v>
       </c>
       <c r="AQ8" t="n">
-        <v>6.88</v>
+        <v>7.7</v>
       </c>
       <c r="AR8" t="n">
-        <v>-5.41</v>
+        <v>-7.14</v>
       </c>
       <c r="AS8" t="n">
-        <v>-1.31</v>
+        <v>-1.05</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="AU8" t="n">
-        <v>1.49</v>
+        <v>1.87</v>
       </c>
       <c r="AV8" t="n">
-        <v>9.35</v>
+        <v>10.86</v>
       </c>
       <c r="AW8" t="n">
-        <v>10.71</v>
+        <v>10.04</v>
       </c>
       <c r="AX8" t="n">
-        <v>6.28</v>
+        <v>4.7</v>
       </c>
       <c r="AY8" t="n">
-        <v>3.92</v>
+        <v>3.62</v>
       </c>
       <c r="AZ8" t="n">
-        <v>4.65</v>
+        <v>6.46</v>
       </c>
     </row>
     <row r="9">
@@ -1824,157 +1824,157 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.49</v>
+        <v>-0.59</v>
       </c>
       <c r="C9" t="n">
-        <v>25.72</v>
+        <v>25.57</v>
       </c>
       <c r="D9" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="E9" t="n">
-        <v>-6.43</v>
+        <v>-5.22</v>
       </c>
       <c r="F9" t="n">
-        <v>10.96</v>
+        <v>13.77</v>
       </c>
       <c r="G9" t="n">
-        <v>1.56</v>
+        <v>1.48</v>
       </c>
       <c r="H9" t="n">
-        <v>-3.04</v>
+        <v>-3.81</v>
       </c>
       <c r="I9" t="n">
-        <v>10.23</v>
+        <v>7.71</v>
       </c>
       <c r="J9" t="n">
-        <v>14.49</v>
+        <v>10.69</v>
       </c>
       <c r="K9" t="n">
-        <v>-1.01</v>
+        <v>-0.73</v>
       </c>
       <c r="L9" t="n">
-        <v>-1.43</v>
+        <v>-1.5</v>
       </c>
       <c r="M9" t="n">
         <v>0.25</v>
       </c>
       <c r="N9" t="n">
-        <v>7.36</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="O9" t="n">
-        <v>8.619999999999999</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="P9" t="n">
-        <v>-2.6</v>
+        <v>-2.83</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.71</v>
+        <v>0.57</v>
       </c>
       <c r="R9" t="n">
-        <v>11.89</v>
+        <v>14.26</v>
       </c>
       <c r="S9" t="n">
-        <v>3.01</v>
+        <v>3.33</v>
       </c>
       <c r="T9" t="n">
-        <v>-4.66</v>
+        <v>-4.4</v>
       </c>
       <c r="U9" t="n">
-        <v>2.6</v>
+        <v>2.65</v>
       </c>
       <c r="V9" t="n">
-        <v>1.44</v>
+        <v>1.81</v>
       </c>
       <c r="W9" t="n">
-        <v>0.67</v>
+        <v>0.65</v>
       </c>
       <c r="X9" t="n">
-        <v>8.24</v>
+        <v>11.26</v>
       </c>
       <c r="Y9" t="n">
-        <v>5.98</v>
+        <v>4.29</v>
       </c>
       <c r="Z9" t="n">
-        <v>-4.18</v>
+        <v>-4.4</v>
       </c>
       <c r="AA9" t="n">
-        <v>-1.74</v>
+        <v>-1.84</v>
       </c>
       <c r="AB9" t="n">
-        <v>7.42</v>
+        <v>6.19</v>
       </c>
       <c r="AC9" t="n">
-        <v>3.91</v>
+        <v>4.47</v>
       </c>
       <c r="AD9" t="n">
-        <v>-0.43</v>
+        <v>-0.36</v>
       </c>
       <c r="AE9" t="n">
-        <v>1.96</v>
+        <v>2.18</v>
       </c>
       <c r="AF9" t="n">
-        <v>6.44</v>
+        <v>5.63</v>
       </c>
       <c r="AG9" t="n">
-        <v>1.74</v>
+        <v>1.88</v>
       </c>
       <c r="AH9" t="n">
-        <v>-0.22</v>
+        <v>-0.23</v>
       </c>
       <c r="AI9" t="n">
-        <v>2.11</v>
+        <v>2.38</v>
       </c>
       <c r="AJ9" t="n">
-        <v>2.4</v>
+        <v>1.98</v>
       </c>
       <c r="AK9" t="n">
-        <v>-1.88</v>
+        <v>-1.75</v>
       </c>
       <c r="AL9" t="n">
-        <v>4.01</v>
+        <v>4.46</v>
       </c>
       <c r="AM9" t="n">
-        <v>9.949999999999999</v>
+        <v>9.460000000000001</v>
       </c>
       <c r="AN9" t="n">
-        <v>0.24</v>
+        <v>0.26</v>
       </c>
       <c r="AO9" t="n">
-        <v>0.79</v>
+        <v>0.91</v>
       </c>
       <c r="AP9" t="n">
-        <v>8.16</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="AQ9" t="n">
-        <v>-3.9</v>
+        <v>-4.13</v>
       </c>
       <c r="AR9" t="n">
-        <v>-4.5</v>
+        <v>-3.75</v>
       </c>
       <c r="AS9" t="n">
-        <v>0.55</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT9" t="n">
-        <v>-0.47</v>
+        <v>-0.45</v>
       </c>
       <c r="AU9" t="n">
-        <v>1.41</v>
+        <v>1.34</v>
       </c>
       <c r="AV9" t="n">
-        <v>5.57</v>
+        <v>5.54</v>
       </c>
       <c r="AW9" t="n">
-        <v>7.63</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="AX9" t="n">
-        <v>7.14</v>
+        <v>10.26</v>
       </c>
       <c r="AY9" t="n">
-        <v>-1.19</v>
+        <v>-1.16</v>
       </c>
       <c r="AZ9" t="n">
-        <v>1.41</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="10">
@@ -1984,154 +1984,154 @@
         </is>
       </c>
       <c r="B10" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="C10" t="n">
+        <v>5.52</v>
+      </c>
+      <c r="D10" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-0.64</v>
+      </c>
+      <c r="F10" t="n">
+        <v>20.64</v>
+      </c>
+      <c r="G10" t="n">
+        <v>16.73</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="I10" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="K10" t="n">
+        <v>-0.32</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="N10" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="O10" t="n">
+        <v>6.86</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="R10" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="S10" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V10" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="W10" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="X10" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="Y10" t="n">
         <v>3.18</v>
       </c>
-      <c r="C10" t="n">
-        <v>6.72</v>
-      </c>
-      <c r="D10" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="E10" t="n">
-        <v>-0.55</v>
-      </c>
-      <c r="F10" t="n">
-        <v>18.07</v>
-      </c>
-      <c r="G10" t="n">
-        <v>16.66</v>
-      </c>
-      <c r="H10" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="I10" t="n">
+      <c r="Z10" t="n">
+        <v>-0.77</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>-0.11</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>6.78</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>-0.11</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>-0.84</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>-0.83</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>-0.45</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AV10" t="n">
         <v>4.39</v>
       </c>
-      <c r="J10" t="n">
-        <v>3.23</v>
-      </c>
-      <c r="K10" t="n">
-        <v>-0.33</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="N10" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="O10" t="n">
-        <v>5.48</v>
-      </c>
-      <c r="P10" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="R10" t="n">
-        <v>8.68</v>
-      </c>
-      <c r="S10" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="V10" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="W10" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="X10" t="n">
-        <v>3.83</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>3.46</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>-0.09</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>7.65</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>-0.08</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>4.02</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>4.89</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>-0.85</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>-0.74</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>-0.46</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>4.79</v>
-      </c>
       <c r="AW10" t="n">
-        <v>2.63</v>
+        <v>2.59</v>
       </c>
       <c r="AX10" t="n">
-        <v>14.52</v>
+        <v>15.11</v>
       </c>
       <c r="AY10" t="n">
-        <v>4.84</v>
+        <v>5.3</v>
       </c>
       <c r="AZ10" t="n">
         <v>0.31</v>
@@ -2144,76 +2144,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-6.02</v>
+        <v>-4.86</v>
       </c>
       <c r="C11" t="n">
-        <v>11.71</v>
+        <v>11.14</v>
       </c>
       <c r="D11" t="n">
-        <v>-3.86</v>
+        <v>-4.4</v>
       </c>
       <c r="E11" t="n">
-        <v>0.75</v>
+        <v>0.63</v>
       </c>
       <c r="F11" t="n">
-        <v>10.31</v>
+        <v>11.93</v>
       </c>
       <c r="G11" t="n">
-        <v>5.3</v>
+        <v>5.77</v>
       </c>
       <c r="H11" t="n">
-        <v>4.26</v>
+        <v>4.67</v>
       </c>
       <c r="I11" t="n">
-        <v>3.9</v>
+        <v>3.76</v>
       </c>
       <c r="J11" t="n">
-        <v>-1.4</v>
+        <v>-1.99</v>
       </c>
       <c r="K11" t="n">
-        <v>1.14</v>
+        <v>1.37</v>
       </c>
       <c r="L11" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="M11" t="n">
+        <v>-0.96</v>
+      </c>
+      <c r="N11" t="n">
+        <v>7.85</v>
+      </c>
+      <c r="O11" t="n">
+        <v>-1.66</v>
+      </c>
+      <c r="P11" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="Q11" t="n">
         <v>9.92</v>
       </c>
-      <c r="M11" t="n">
-        <v>-1.03</v>
-      </c>
-      <c r="N11" t="n">
-        <v>8.17</v>
-      </c>
-      <c r="O11" t="n">
-        <v>-1.41</v>
-      </c>
-      <c r="P11" t="n">
-        <v>6.74</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>11.11</v>
-      </c>
       <c r="R11" t="n">
-        <v>-0.21</v>
+        <v>-0.2</v>
       </c>
       <c r="S11" t="n">
-        <v>-0.65</v>
+        <v>-0.85</v>
       </c>
       <c r="T11" t="n">
         <v>-0.1</v>
       </c>
       <c r="U11" t="n">
-        <v>4.38</v>
+        <v>3.73</v>
       </c>
       <c r="V11" t="n">
-        <v>3.99</v>
+        <v>3.07</v>
       </c>
       <c r="W11" t="n">
-        <v>1.55</v>
+        <v>1.17</v>
       </c>
       <c r="X11" t="n">
-        <v>6.44</v>
+        <v>6.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>2.76</v>
+        <v>3.36</v>
       </c>
       <c r="Z11" t="n">
         <v>0.28</v>
@@ -2222,79 +2222,79 @@
         <v>0.47</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.97</v>
+        <v>1.25</v>
       </c>
       <c r="AC11" t="n">
-        <v>3.83</v>
+        <v>3.45</v>
       </c>
       <c r="AD11" t="n">
-        <v>1.51</v>
+        <v>1.55</v>
       </c>
       <c r="AE11" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="AF11" t="n">
-        <v>7.89</v>
+        <v>7.01</v>
       </c>
       <c r="AG11" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AH11" t="n">
-        <v>-2.07</v>
+        <v>-1.94</v>
       </c>
       <c r="AI11" t="n">
-        <v>4.45</v>
+        <v>4.81</v>
       </c>
       <c r="AJ11" t="n">
-        <v>4.09</v>
+        <v>4.16</v>
       </c>
       <c r="AK11" t="n">
-        <v>1.74</v>
+        <v>1.61</v>
       </c>
       <c r="AL11" t="n">
-        <v>-0.11</v>
+        <v>-0.1</v>
       </c>
       <c r="AM11" t="n">
-        <v>3.02</v>
+        <v>3.22</v>
       </c>
       <c r="AN11" t="n">
-        <v>4.5</v>
+        <v>4.69</v>
       </c>
       <c r="AO11" t="n">
-        <v>4.72</v>
+        <v>3.87</v>
       </c>
       <c r="AP11" t="n">
-        <v>2.18</v>
+        <v>1.95</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.42</v>
+        <v>0.36</v>
       </c>
       <c r="AR11" t="n">
-        <v>-2.66</v>
+        <v>-3.18</v>
       </c>
       <c r="AS11" t="n">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.26</v>
+        <v>0.28</v>
       </c>
       <c r="AU11" t="n">
-        <v>-0.35</v>
+        <v>-0.33</v>
       </c>
       <c r="AV11" t="n">
-        <v>6.31</v>
+        <v>5.54</v>
       </c>
       <c r="AW11" t="n">
-        <v>5.92</v>
+        <v>5.29</v>
       </c>
       <c r="AX11" t="n">
-        <v>17.17</v>
+        <v>14.92</v>
       </c>
       <c r="AY11" t="n">
-        <v>2.98</v>
+        <v>2.7</v>
       </c>
       <c r="AZ11" t="n">
-        <v>0.84</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="12">
@@ -2304,157 +2304,157 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>15.58</v>
+        <v>14.93</v>
       </c>
       <c r="C12" t="n">
-        <v>9.31</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>13.06</v>
+        <v>10.36</v>
       </c>
       <c r="E12" t="n">
-        <v>11.72</v>
+        <v>9.6</v>
       </c>
       <c r="F12" t="n">
-        <v>8.6</v>
+        <v>8.43</v>
       </c>
       <c r="G12" t="n">
-        <v>10.29</v>
+        <v>11.57</v>
       </c>
       <c r="H12" t="n">
-        <v>9.81</v>
+        <v>9.68</v>
       </c>
       <c r="I12" t="n">
-        <v>7.57</v>
+        <v>7.01</v>
       </c>
       <c r="J12" t="n">
-        <v>3.34</v>
+        <v>3.1</v>
       </c>
       <c r="K12" t="n">
-        <v>1.11</v>
+        <v>1.02</v>
       </c>
       <c r="L12" t="n">
-        <v>2.75</v>
+        <v>2.98</v>
       </c>
       <c r="M12" t="n">
-        <v>3.99</v>
+        <v>4.09</v>
       </c>
       <c r="N12" t="n">
-        <v>8.369999999999999</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="O12" t="n">
-        <v>9.1</v>
+        <v>10.32</v>
       </c>
       <c r="P12" t="n">
-        <v>6.82</v>
+        <v>5.07</v>
       </c>
       <c r="Q12" t="n">
-        <v>3.73</v>
+        <v>4.42</v>
       </c>
       <c r="R12" t="n">
-        <v>2.06</v>
+        <v>1.77</v>
       </c>
       <c r="S12" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="T12" t="n">
-        <v>2.13</v>
+        <v>1.86</v>
       </c>
       <c r="U12" t="n">
-        <v>2.89</v>
+        <v>3.46</v>
       </c>
       <c r="V12" t="n">
-        <v>4.27</v>
+        <v>4.91</v>
       </c>
       <c r="W12" t="n">
-        <v>4.74</v>
+        <v>4.12</v>
       </c>
       <c r="X12" t="n">
-        <v>0.96</v>
+        <v>0.99</v>
       </c>
       <c r="Y12" t="n">
-        <v>2.12</v>
+        <v>2.6</v>
       </c>
       <c r="Z12" t="n">
-        <v>2.61</v>
+        <v>2.36</v>
       </c>
       <c r="AA12" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="AB12" t="n">
-        <v>3.18</v>
+        <v>3.24</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.42</v>
+        <v>0.4</v>
       </c>
       <c r="AD12" t="n">
-        <v>-1.74</v>
+        <v>-1.76</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.86</v>
+        <v>1.17</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="AG12" t="n">
-        <v>2.71</v>
+        <v>3.04</v>
       </c>
       <c r="AH12" t="n">
-        <v>4.83</v>
+        <v>5.32</v>
       </c>
       <c r="AI12" t="n">
-        <v>4.25</v>
+        <v>4.4</v>
       </c>
       <c r="AJ12" t="n">
-        <v>5.27</v>
+        <v>5.7</v>
       </c>
       <c r="AK12" t="n">
-        <v>3.49</v>
+        <v>4.16</v>
       </c>
       <c r="AL12" t="n">
         <v>1.21</v>
       </c>
       <c r="AM12" t="n">
-        <v>6.53</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="AN12" t="n">
         <v>2.37</v>
       </c>
       <c r="AO12" t="n">
-        <v>2.73</v>
+        <v>2.13</v>
       </c>
       <c r="AP12" t="n">
-        <v>5.51</v>
+        <v>5.09</v>
       </c>
       <c r="AQ12" t="n">
-        <v>-0.86</v>
+        <v>-1.01</v>
       </c>
       <c r="AR12" t="n">
-        <v>-0.61</v>
+        <v>-0.78</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.14</v>
+        <v>1.19</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.91</v>
+        <v>2.48</v>
       </c>
       <c r="AU12" t="n">
-        <v>1.47</v>
+        <v>1.82</v>
       </c>
       <c r="AV12" t="n">
-        <v>3.73</v>
+        <v>2.87</v>
       </c>
       <c r="AW12" t="n">
-        <v>5.73</v>
+        <v>5.8</v>
       </c>
       <c r="AX12" t="n">
-        <v>7.34</v>
+        <v>9.31</v>
       </c>
       <c r="AY12" t="n">
-        <v>0.32</v>
+        <v>0.26</v>
       </c>
       <c r="AZ12" t="n">
-        <v>-1.62</v>
+        <v>-1.73</v>
       </c>
     </row>
     <row r="13">
@@ -2464,157 +2464,157 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.39</v>
+        <v>0.33</v>
       </c>
       <c r="C13" t="n">
-        <v>-2.04</v>
+        <v>-1.88</v>
       </c>
       <c r="D13" t="n">
-        <v>9.26</v>
+        <v>8.81</v>
       </c>
       <c r="E13" t="n">
-        <v>-3.52</v>
+        <v>-3.25</v>
       </c>
       <c r="F13" t="n">
-        <v>-6.33</v>
+        <v>-4.62</v>
       </c>
       <c r="G13" t="n">
-        <v>10.4</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="H13" t="n">
-        <v>-1.84</v>
+        <v>-1.55</v>
       </c>
       <c r="I13" t="n">
-        <v>8.43</v>
+        <v>8.35</v>
       </c>
       <c r="J13" t="n">
-        <v>-2.41</v>
+        <v>-2.96</v>
       </c>
       <c r="K13" t="n">
-        <v>4.75</v>
+        <v>4.11</v>
       </c>
       <c r="L13" t="n">
-        <v>10.87</v>
+        <v>13.49</v>
       </c>
       <c r="M13" t="n">
-        <v>-14.23</v>
+        <v>-18.65</v>
       </c>
       <c r="N13" t="n">
-        <v>6.07</v>
+        <v>6.09</v>
       </c>
       <c r="O13" t="n">
-        <v>-6.03</v>
+        <v>-5.81</v>
       </c>
       <c r="P13" t="n">
-        <v>1.94</v>
+        <v>2.49</v>
       </c>
       <c r="Q13" t="n">
-        <v>28.75</v>
+        <v>31.66</v>
       </c>
       <c r="R13" t="n">
-        <v>3.88</v>
+        <v>4.42</v>
       </c>
       <c r="S13" t="n">
-        <v>-1.96</v>
+        <v>-2.46</v>
       </c>
       <c r="T13" t="n">
-        <v>-11.81</v>
+        <v>-12.72</v>
       </c>
       <c r="U13" t="n">
-        <v>8.77</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="V13" t="n">
-        <v>-2.77</v>
+        <v>-2.38</v>
       </c>
       <c r="W13" t="n">
-        <v>4.78</v>
+        <v>4.91</v>
       </c>
       <c r="X13" t="n">
-        <v>19.99</v>
+        <v>20.22</v>
       </c>
       <c r="Y13" t="n">
-        <v>-1.45</v>
+        <v>-1.61</v>
       </c>
       <c r="Z13" t="n">
-        <v>-3.13</v>
+        <v>-3.16</v>
       </c>
       <c r="AA13" t="n">
-        <v>-5.49</v>
+        <v>-6.37</v>
       </c>
       <c r="AB13" t="n">
-        <v>2.59</v>
+        <v>3.11</v>
       </c>
       <c r="AC13" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>13.04</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>-11.86</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>30.48</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>16.02</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>-14.08</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>10.47</v>
+      </c>
+      <c r="AN13" t="n">
         <v>3.17</v>
       </c>
-      <c r="AD13" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>12.73</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>7.36</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>-10.98</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>5.14</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>33.31</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>11.37</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>-13.96</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>8.52</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>3.12</v>
-      </c>
       <c r="AO13" t="n">
-        <v>2.75</v>
+        <v>3.86</v>
       </c>
       <c r="AP13" t="n">
-        <v>8.609999999999999</v>
+        <v>6.74</v>
       </c>
       <c r="AQ13" t="n">
-        <v>16.31</v>
+        <v>19.8</v>
       </c>
       <c r="AR13" t="n">
-        <v>-19.26</v>
+        <v>-19.99</v>
       </c>
       <c r="AS13" t="n">
-        <v>-8.07</v>
+        <v>-11.31</v>
       </c>
       <c r="AT13" t="n">
-        <v>11.3</v>
+        <v>12.07</v>
       </c>
       <c r="AU13" t="n">
-        <v>-10.32</v>
+        <v>-9.84</v>
       </c>
       <c r="AV13" t="n">
-        <v>3.93</v>
+        <v>3.71</v>
       </c>
       <c r="AW13" t="n">
-        <v>4.76</v>
+        <v>3.95</v>
       </c>
       <c r="AX13" t="n">
-        <v>33.68</v>
+        <v>37.45</v>
       </c>
       <c r="AY13" t="n">
-        <v>1.52</v>
+        <v>1.63</v>
       </c>
       <c r="AZ13" t="n">
-        <v>10</v>
+        <v>7.35</v>
       </c>
     </row>
     <row r="14">
@@ -2624,157 +2624,157 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>20.86</v>
+        <v>18.7</v>
       </c>
       <c r="C14" t="n">
-        <v>3.53</v>
+        <v>3.05</v>
       </c>
       <c r="D14" t="n">
-        <v>9.33</v>
+        <v>7.93</v>
       </c>
       <c r="E14" t="n">
-        <v>3.05</v>
+        <v>2.79</v>
       </c>
       <c r="F14" t="n">
-        <v>6.32</v>
+        <v>7.04</v>
       </c>
       <c r="G14" t="n">
-        <v>12.71</v>
+        <v>12.93</v>
       </c>
       <c r="H14" t="n">
-        <v>11.52</v>
+        <v>11.44</v>
       </c>
       <c r="I14" t="n">
-        <v>7.74</v>
+        <v>6.95</v>
       </c>
       <c r="J14" t="n">
-        <v>1.26</v>
+        <v>1.32</v>
       </c>
       <c r="K14" t="n">
-        <v>0.99</v>
+        <v>1.32</v>
       </c>
       <c r="L14" t="n">
-        <v>1.27</v>
+        <v>1.05</v>
       </c>
       <c r="M14" t="n">
-        <v>2.19</v>
+        <v>2.14</v>
       </c>
       <c r="N14" t="n">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="O14" t="n">
-        <v>2.04</v>
+        <v>2.29</v>
       </c>
       <c r="P14" t="n">
-        <v>2.56</v>
+        <v>2.88</v>
       </c>
       <c r="Q14" t="n">
-        <v>7.33</v>
+        <v>5.93</v>
       </c>
       <c r="R14" t="n">
-        <v>9.06</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="S14" t="n">
-        <v>-1.13</v>
+        <v>-1.28</v>
       </c>
       <c r="T14" t="n">
-        <v>3.06</v>
+        <v>2.73</v>
       </c>
       <c r="U14" t="n">
-        <v>0.73</v>
+        <v>0.66</v>
       </c>
       <c r="V14" t="n">
-        <v>1.57</v>
+        <v>1.84</v>
       </c>
       <c r="W14" t="n">
         <v>0.92</v>
       </c>
       <c r="X14" t="n">
-        <v>6.98</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="Y14" t="n">
-        <v>2.09</v>
+        <v>2.22</v>
       </c>
       <c r="Z14" t="n">
-        <v>3.58</v>
+        <v>3.44</v>
       </c>
       <c r="AA14" t="n">
-        <v>6.49</v>
+        <v>6.83</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.71</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AC14" t="n">
-        <v>3.62</v>
+        <v>4.54</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.6</v>
+        <v>0.61</v>
       </c>
       <c r="AE14" t="n">
-        <v>-0.12</v>
+        <v>-0.1</v>
       </c>
       <c r="AF14" t="n">
-        <v>8.18</v>
+        <v>5.91</v>
       </c>
       <c r="AG14" t="n">
-        <v>1.24</v>
+        <v>1.05</v>
       </c>
       <c r="AH14" t="n">
-        <v>-0.47</v>
+        <v>-0.41</v>
       </c>
       <c r="AI14" t="n">
-        <v>7.98</v>
+        <v>7.26</v>
       </c>
       <c r="AJ14" t="n">
-        <v>8.91</v>
+        <v>6.67</v>
       </c>
       <c r="AK14" t="n">
-        <v>-7.67</v>
+        <v>-6.73</v>
       </c>
       <c r="AL14" t="n">
-        <v>1.24</v>
+        <v>0.99</v>
       </c>
       <c r="AM14" t="n">
-        <v>5.83</v>
+        <v>8.01</v>
       </c>
       <c r="AN14" t="n">
-        <v>2.39</v>
+        <v>2.32</v>
       </c>
       <c r="AO14" t="n">
         <v>0.09</v>
       </c>
       <c r="AP14" t="n">
-        <v>3.87</v>
+        <v>4.03</v>
       </c>
       <c r="AQ14" t="n">
-        <v>-1.23</v>
+        <v>-1.14</v>
       </c>
       <c r="AR14" t="n">
-        <v>-2.09</v>
+        <v>-1.93</v>
       </c>
       <c r="AS14" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="AT14" t="n">
-        <v>-0.42</v>
+        <v>-0.41</v>
       </c>
       <c r="AU14" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AV14" t="n">
-        <v>4.82</v>
+        <v>4.16</v>
       </c>
       <c r="AW14" t="n">
-        <v>1.29</v>
+        <v>1.12</v>
       </c>
       <c r="AX14" t="n">
-        <v>10.24</v>
+        <v>10.3</v>
       </c>
       <c r="AY14" t="n">
-        <v>3.6</v>
+        <v>3.36</v>
       </c>
       <c r="AZ14" t="n">
-        <v>-0.21</v>
+        <v>-0.16</v>
       </c>
     </row>
     <row r="15">
@@ -2784,157 +2784,157 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>42.7</v>
+        <v>47.61</v>
       </c>
       <c r="C15" t="n">
-        <v>12.51</v>
+        <v>11.72</v>
       </c>
       <c r="D15" t="n">
-        <v>-12.75</v>
+        <v>-13.36</v>
       </c>
       <c r="E15" t="n">
-        <v>10.88</v>
+        <v>10.66</v>
       </c>
       <c r="F15" t="n">
-        <v>8.68</v>
+        <v>8.07</v>
       </c>
       <c r="G15" t="n">
-        <v>8.859999999999999</v>
+        <v>6.38</v>
       </c>
       <c r="H15" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="I15" t="n">
-        <v>12.5</v>
+        <v>10.37</v>
       </c>
       <c r="J15" t="n">
-        <v>-2.95</v>
+        <v>-2.87</v>
       </c>
       <c r="K15" t="n">
-        <v>1.32</v>
+        <v>1.27</v>
       </c>
       <c r="L15" t="n">
-        <v>9.31</v>
+        <v>9.58</v>
       </c>
       <c r="M15" t="n">
-        <v>2.07</v>
+        <v>1.87</v>
       </c>
       <c r="N15" t="n">
-        <v>-1.78</v>
+        <v>-2.41</v>
       </c>
       <c r="O15" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="P15" t="n">
-        <v>4.87</v>
+        <v>4.24</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.22</v>
+        <v>5.81</v>
       </c>
       <c r="R15" t="n">
-        <v>4.5</v>
+        <v>4.78</v>
       </c>
       <c r="S15" t="n">
-        <v>4.25</v>
+        <v>4.67</v>
       </c>
       <c r="T15" t="n">
-        <v>-1.36</v>
+        <v>-1.44</v>
       </c>
       <c r="U15" t="n">
         <v>0.2</v>
       </c>
       <c r="V15" t="n">
-        <v>2.62</v>
+        <v>2.24</v>
       </c>
       <c r="W15" t="n">
-        <v>2.33</v>
+        <v>2.45</v>
       </c>
       <c r="X15" t="n">
-        <v>2.06</v>
+        <v>1.88</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.83</v>
+        <v>1.03</v>
       </c>
       <c r="Z15" t="n">
-        <v>3.02</v>
+        <v>3.69</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="AB15" t="n">
-        <v>-0.58</v>
+        <v>-0.54</v>
       </c>
       <c r="AC15" t="n">
-        <v>6.33</v>
+        <v>4.67</v>
       </c>
       <c r="AD15" t="n">
         <v>-0.23</v>
       </c>
       <c r="AE15" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AF15" t="n">
-        <v>7.77</v>
+        <v>7.76</v>
       </c>
       <c r="AG15" t="n">
-        <v>-0.1</v>
+        <v>-0.08</v>
       </c>
       <c r="AH15" t="n">
-        <v>0.17</v>
+        <v>0.23</v>
       </c>
       <c r="AI15" t="n">
-        <v>2.47</v>
+        <v>2.73</v>
       </c>
       <c r="AJ15" t="n">
-        <v>14.17</v>
+        <v>13.8</v>
       </c>
       <c r="AK15" t="n">
-        <v>2.65</v>
+        <v>2.33</v>
       </c>
       <c r="AL15" t="n">
-        <v>-0.25</v>
+        <v>-0.31</v>
       </c>
       <c r="AM15" t="n">
-        <v>9.48</v>
+        <v>9.35</v>
       </c>
       <c r="AN15" t="n">
-        <v>6.3</v>
+        <v>6.33</v>
       </c>
       <c r="AO15" t="n">
-        <v>-1.44</v>
+        <v>-1.37</v>
       </c>
       <c r="AP15" t="n">
         <v>0.11</v>
       </c>
       <c r="AQ15" t="n">
-        <v>-1.06</v>
+        <v>-1.11</v>
       </c>
       <c r="AR15" t="n">
-        <v>-0.71</v>
+        <v>-0.68</v>
       </c>
       <c r="AS15" t="n">
-        <v>0.74</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="AU15" t="n">
-        <v>-0.64</v>
+        <v>-0.79</v>
       </c>
       <c r="AV15" t="n">
-        <v>1.15</v>
+        <v>1.35</v>
       </c>
       <c r="AW15" t="n">
-        <v>4.62</v>
+        <v>5.47</v>
       </c>
       <c r="AX15" t="n">
-        <v>16.93</v>
+        <v>19.11</v>
       </c>
       <c r="AY15" t="n">
-        <v>10.3</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="AZ15" t="n">
-        <v>2.82</v>
+        <v>2.34</v>
       </c>
     </row>
     <row r="16">
@@ -2944,157 +2944,157 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>16.78</v>
+        <v>18.25</v>
       </c>
       <c r="C16" t="n">
-        <v>3.24</v>
+        <v>3.18</v>
       </c>
       <c r="D16" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="E16" t="n">
-        <v>11</v>
+        <v>9.25</v>
       </c>
       <c r="F16" t="n">
-        <v>9.51</v>
+        <v>13.21</v>
       </c>
       <c r="G16" t="n">
-        <v>8.800000000000001</v>
+        <v>7.99</v>
       </c>
       <c r="H16" t="n">
-        <v>7.34</v>
+        <v>7.68</v>
       </c>
       <c r="I16" t="n">
-        <v>13.23</v>
+        <v>10.63</v>
       </c>
       <c r="J16" t="n">
-        <v>6.33</v>
+        <v>6.23</v>
       </c>
       <c r="K16" t="n">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="L16" t="n">
-        <v>10.29</v>
+        <v>7.09</v>
       </c>
       <c r="M16" t="n">
-        <v>2.54</v>
+        <v>2.1</v>
       </c>
       <c r="N16" t="n">
-        <v>0.8</v>
+        <v>0.91</v>
       </c>
       <c r="O16" t="n">
-        <v>8.789999999999999</v>
+        <v>8.76</v>
       </c>
       <c r="P16" t="n">
-        <v>8.26</v>
+        <v>6.3</v>
       </c>
       <c r="Q16" t="n">
-        <v>6.52</v>
+        <v>6.84</v>
       </c>
       <c r="R16" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="S16" t="n">
-        <v>4.34</v>
+        <v>4.32</v>
       </c>
       <c r="T16" t="n">
-        <v>-0.27</v>
+        <v>-0.34</v>
       </c>
       <c r="U16" t="n">
-        <v>2.37</v>
+        <v>2.43</v>
       </c>
       <c r="V16" t="n">
-        <v>4.39</v>
+        <v>4.13</v>
       </c>
       <c r="W16" t="n">
-        <v>6.96</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="X16" t="n">
-        <v>4.19</v>
+        <v>3.56</v>
       </c>
       <c r="Y16" t="n">
-        <v>2</v>
+        <v>1.84</v>
       </c>
       <c r="Z16" t="n">
-        <v>6.28</v>
+        <v>5.78</v>
       </c>
       <c r="AA16" t="n">
-        <v>2.67</v>
+        <v>2.82</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.6</v>
+        <v>0.78</v>
       </c>
       <c r="AC16" t="n">
-        <v>3.75</v>
+        <v>3.99</v>
       </c>
       <c r="AD16" t="n">
-        <v>4.74</v>
+        <v>3.74</v>
       </c>
       <c r="AE16" t="n">
-        <v>2</v>
+        <v>2.65</v>
       </c>
       <c r="AF16" t="n">
         <v>2.98</v>
       </c>
       <c r="AG16" t="n">
-        <v>3.59</v>
+        <v>4.02</v>
       </c>
       <c r="AH16" t="n">
-        <v>5.14</v>
+        <v>5.33</v>
       </c>
       <c r="AI16" t="n">
-        <v>3.28</v>
+        <v>4.45</v>
       </c>
       <c r="AJ16" t="n">
-        <v>5.58</v>
+        <v>6.03</v>
       </c>
       <c r="AK16" t="n">
-        <v>-1.73</v>
+        <v>-2.51</v>
       </c>
       <c r="AL16" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
       <c r="AM16" t="n">
-        <v>3.79</v>
+        <v>4.06</v>
       </c>
       <c r="AN16" t="n">
-        <v>-0.5600000000000001</v>
+        <v>-0.59</v>
       </c>
       <c r="AO16" t="n">
-        <v>2.15</v>
+        <v>2.36</v>
       </c>
       <c r="AP16" t="n">
-        <v>1.25</v>
+        <v>1.41</v>
       </c>
       <c r="AQ16" t="n">
-        <v>-0.23</v>
+        <v>-0.21</v>
       </c>
       <c r="AR16" t="n">
-        <v>0.86</v>
+        <v>0.66</v>
       </c>
       <c r="AS16" t="n">
-        <v>-0.19</v>
+        <v>-0.2</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.6</v>
+        <v>0.74</v>
       </c>
       <c r="AU16" t="n">
-        <v>1.19</v>
+        <v>0.99</v>
       </c>
       <c r="AV16" t="n">
-        <v>1.48</v>
+        <v>1.21</v>
       </c>
       <c r="AW16" t="n">
-        <v>3.12</v>
+        <v>2.85</v>
       </c>
       <c r="AX16" t="n">
-        <v>9.15</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="AY16" t="n">
-        <v>2.96</v>
+        <v>2.41</v>
       </c>
       <c r="AZ16" t="n">
-        <v>0.72</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="17">
@@ -3104,157 +3104,157 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>7.94</v>
+        <v>7.32</v>
       </c>
       <c r="C17" t="n">
-        <v>2.37</v>
+        <v>2.33</v>
       </c>
       <c r="D17" t="n">
-        <v>2.18</v>
+        <v>1.92</v>
       </c>
       <c r="E17" t="n">
-        <v>14.72</v>
+        <v>15.8</v>
       </c>
       <c r="F17" t="n">
-        <v>14.2</v>
+        <v>13.73</v>
       </c>
       <c r="G17" t="n">
-        <v>7.09</v>
+        <v>8.07</v>
       </c>
       <c r="H17" t="n">
-        <v>7.72</v>
+        <v>7.27</v>
       </c>
       <c r="I17" t="n">
-        <v>10.82</v>
+        <v>13.85</v>
       </c>
       <c r="J17" t="n">
-        <v>5.23</v>
+        <v>6.2</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.32</v>
+        <v>-0.28</v>
       </c>
       <c r="L17" t="n">
-        <v>10.28</v>
+        <v>11.9</v>
       </c>
       <c r="M17" t="n">
-        <v>3.01</v>
+        <v>2.95</v>
       </c>
       <c r="N17" t="n">
-        <v>2.95</v>
+        <v>2.67</v>
       </c>
       <c r="O17" t="n">
-        <v>12.4</v>
+        <v>11.72</v>
       </c>
       <c r="P17" t="n">
-        <v>6.96</v>
+        <v>6.44</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.789999999999999</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="R17" t="n">
-        <v>9.93</v>
+        <v>10.06</v>
       </c>
       <c r="S17" t="n">
-        <v>8.67</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="T17" t="n">
-        <v>-2.11</v>
+        <v>-1.46</v>
       </c>
       <c r="U17" t="n">
-        <v>3.94</v>
+        <v>3.81</v>
       </c>
       <c r="V17" t="n">
-        <v>5.02</v>
+        <v>5.01</v>
       </c>
       <c r="W17" t="n">
-        <v>9.210000000000001</v>
+        <v>8.92</v>
       </c>
       <c r="X17" t="n">
-        <v>3.2</v>
+        <v>2.47</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="Z17" t="n">
-        <v>8.470000000000001</v>
+        <v>7.26</v>
       </c>
       <c r="AA17" t="n">
-        <v>2.98</v>
+        <v>2.92</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.65</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AC17" t="n">
-        <v>4.21</v>
+        <v>3.17</v>
       </c>
       <c r="AD17" t="n">
-        <v>4.37</v>
+        <v>3.54</v>
       </c>
       <c r="AE17" t="n">
-        <v>3.12</v>
+        <v>2.57</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.61</v>
+        <v>3.35</v>
       </c>
       <c r="AG17" t="n">
-        <v>3.25</v>
+        <v>3.55</v>
       </c>
       <c r="AH17" t="n">
-        <v>5.26</v>
+        <v>4.58</v>
       </c>
       <c r="AI17" t="n">
-        <v>4.45</v>
+        <v>3.3</v>
       </c>
       <c r="AJ17" t="n">
-        <v>4.78</v>
+        <v>4.25</v>
       </c>
       <c r="AK17" t="n">
-        <v>-4.9</v>
+        <v>-5.66</v>
       </c>
       <c r="AL17" t="n">
-        <v>0.61</v>
+        <v>0.79</v>
       </c>
       <c r="AM17" t="n">
-        <v>5.01</v>
+        <v>3.98</v>
       </c>
       <c r="AN17" t="n">
-        <v>-2.01</v>
+        <v>-2.21</v>
       </c>
       <c r="AO17" t="n">
-        <v>3.48</v>
+        <v>3.29</v>
       </c>
       <c r="AP17" t="n">
-        <v>1.76</v>
+        <v>1.97</v>
       </c>
       <c r="AQ17" t="n">
-        <v>-0.45</v>
+        <v>-0.41</v>
       </c>
       <c r="AR17" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AS17" t="n">
-        <v>0.18</v>
+        <v>0.22</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="AU17" t="n">
-        <v>0.88</v>
+        <v>1.19</v>
       </c>
       <c r="AV17" t="n">
-        <v>0.96</v>
+        <v>0.75</v>
       </c>
       <c r="AW17" t="n">
-        <v>2.77</v>
+        <v>3.03</v>
       </c>
       <c r="AX17" t="n">
-        <v>6.82</v>
+        <v>7.91</v>
       </c>
       <c r="AY17" t="n">
-        <v>0.87</v>
+        <v>0.82</v>
       </c>
       <c r="AZ17" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="18">
@@ -3264,157 +3264,157 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>7.28</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="C18" t="n">
-        <v>6.96</v>
+        <v>7.21</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.18</v>
+        <v>-0.23</v>
       </c>
       <c r="E18" t="n">
-        <v>14.25</v>
+        <v>16.15</v>
       </c>
       <c r="F18" t="n">
-        <v>19.23</v>
+        <v>19.1</v>
       </c>
       <c r="G18" t="n">
-        <v>14.71</v>
+        <v>14.75</v>
       </c>
       <c r="H18" t="n">
-        <v>7.12</v>
+        <v>6.11</v>
       </c>
       <c r="I18" t="n">
-        <v>6.24</v>
+        <v>6.28</v>
       </c>
       <c r="J18" t="n">
-        <v>11.05</v>
+        <v>9.27</v>
       </c>
       <c r="K18" t="n">
-        <v>-4.3</v>
+        <v>-3.45</v>
       </c>
       <c r="L18" t="n">
-        <v>11.82</v>
+        <v>12.82</v>
       </c>
       <c r="M18" t="n">
+        <v>9.140000000000001</v>
+      </c>
+      <c r="N18" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="O18" t="n">
+        <v>11.43</v>
+      </c>
+      <c r="P18" t="n">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>7.65</v>
+      </c>
+      <c r="R18" t="n">
+        <v>12.86</v>
+      </c>
+      <c r="S18" t="n">
+        <v>11.33</v>
+      </c>
+      <c r="T18" t="n">
+        <v>-5.04</v>
+      </c>
+      <c r="U18" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V18" t="n">
+        <v>5.47</v>
+      </c>
+      <c r="W18" t="n">
+        <v>7.15</v>
+      </c>
+      <c r="X18" t="n">
+        <v>6.86</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>-3.33</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>6.43</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>-6.85</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>-0.65</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>-2.47</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>-1.48</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>-0.9399999999999999</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>6.11</v>
+      </c>
+      <c r="AX18" t="n">
         <v>9.24</v>
       </c>
-      <c r="N18" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="O18" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="P18" t="n">
-        <v>7.43</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>7.81</v>
-      </c>
-      <c r="R18" t="n">
-        <v>12.96</v>
-      </c>
-      <c r="S18" t="n">
-        <v>14.13</v>
-      </c>
-      <c r="T18" t="n">
-        <v>-5.19</v>
-      </c>
-      <c r="U18" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="V18" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="W18" t="n">
-        <v>8.48</v>
-      </c>
-      <c r="X18" t="n">
-        <v>6.95</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>5.02</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>6.77</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>-3.51</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>5.48</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>-7.17</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>-0.52</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>4.96</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>-2.3</v>
-      </c>
-      <c r="AR18" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="AS18" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AT18" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="AU18" t="n">
-        <v>-1.67</v>
-      </c>
-      <c r="AV18" t="n">
-        <v>-0.82</v>
-      </c>
-      <c r="AW18" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="AX18" t="n">
-        <v>7.78</v>
-      </c>
       <c r="AY18" t="n">
-        <v>0.73</v>
+        <v>0.7</v>
       </c>
       <c r="AZ18" t="n">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="19">
@@ -3424,157 +3424,157 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>8.74</v>
+        <v>5.99</v>
       </c>
       <c r="C19" t="n">
-        <v>-1.03</v>
+        <v>-0.93</v>
       </c>
       <c r="D19" t="n">
-        <v>3.86</v>
+        <v>5.02</v>
       </c>
       <c r="E19" t="n">
-        <v>12.12</v>
+        <v>12.23</v>
       </c>
       <c r="F19" t="n">
-        <v>6.74</v>
+        <v>8.91</v>
       </c>
       <c r="G19" t="n">
-        <v>2.56</v>
+        <v>3.45</v>
       </c>
       <c r="H19" t="n">
-        <v>9.720000000000001</v>
+        <v>7.87</v>
       </c>
       <c r="I19" t="n">
-        <v>16.85</v>
+        <v>19.96</v>
       </c>
       <c r="J19" t="n">
-        <v>0.43</v>
+        <v>0.42</v>
       </c>
       <c r="K19" t="n">
-        <v>3.67</v>
+        <v>3.66</v>
       </c>
       <c r="L19" t="n">
-        <v>12.47</v>
+        <v>12.01</v>
       </c>
       <c r="M19" t="n">
-        <v>-5.15</v>
+        <v>-3.44</v>
       </c>
       <c r="N19" t="n">
-        <v>4.51</v>
+        <v>4.88</v>
       </c>
       <c r="O19" t="n">
-        <v>14.26</v>
+        <v>11.96</v>
       </c>
       <c r="P19" t="n">
-        <v>6.07</v>
+        <v>6.4</v>
       </c>
       <c r="Q19" t="n">
-        <v>8.58</v>
+        <v>12.26</v>
       </c>
       <c r="R19" t="n">
-        <v>5.48</v>
+        <v>4.53</v>
       </c>
       <c r="S19" t="n">
-        <v>2.1</v>
+        <v>2.54</v>
       </c>
       <c r="T19" t="n">
-        <v>1.88</v>
+        <v>2.19</v>
       </c>
       <c r="U19" t="n">
-        <v>5.96</v>
+        <v>7.5</v>
       </c>
       <c r="V19" t="n">
-        <v>2.07</v>
+        <v>2.25</v>
       </c>
       <c r="W19" t="n">
-        <v>10.98</v>
+        <v>13.18</v>
       </c>
       <c r="X19" t="n">
-        <v>-2.06</v>
+        <v>-1.68</v>
       </c>
       <c r="Y19" t="n">
-        <v>3.29</v>
+        <v>3.22</v>
       </c>
       <c r="Z19" t="n">
-        <v>10.9</v>
+        <v>9.9</v>
       </c>
       <c r="AA19" t="n">
-        <v>-2.47</v>
+        <v>-2.99</v>
       </c>
       <c r="AB19" t="n">
-        <v>5.18</v>
+        <v>4.45</v>
       </c>
       <c r="AC19" t="n">
-        <v>5.63</v>
+        <v>5.81</v>
       </c>
       <c r="AD19" t="n">
-        <v>5.59</v>
+        <v>6.94</v>
       </c>
       <c r="AE19" t="n">
-        <v>2.09</v>
+        <v>2.52</v>
       </c>
       <c r="AF19" t="n">
-        <v>5.05</v>
+        <v>4.05</v>
       </c>
       <c r="AG19" t="n">
-        <v>3.49</v>
+        <v>3.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>5.44</v>
+        <v>5.43</v>
       </c>
       <c r="AI19" t="n">
-        <v>2.94</v>
+        <v>2.67</v>
       </c>
       <c r="AJ19" t="n">
-        <v>5.3</v>
+        <v>4.99</v>
       </c>
       <c r="AK19" t="n">
-        <v>-3.78</v>
+        <v>-3.31</v>
       </c>
       <c r="AL19" t="n">
-        <v>1.85</v>
+        <v>2.31</v>
       </c>
       <c r="AM19" t="n">
-        <v>5.51</v>
+        <v>6.21</v>
       </c>
       <c r="AN19" t="n">
-        <v>-4.82</v>
+        <v>-5.86</v>
       </c>
       <c r="AO19" t="n">
-        <v>5.44</v>
+        <v>4.91</v>
       </c>
       <c r="AP19" t="n">
-        <v>-1.2</v>
+        <v>-1.38</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="AR19" t="n">
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>-0.11</v>
+        <v>-0.09</v>
       </c>
       <c r="AT19" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AU19" t="n">
-        <v>3.7</v>
+        <v>3.93</v>
       </c>
       <c r="AV19" t="n">
-        <v>2.98</v>
+        <v>2.25</v>
       </c>
       <c r="AW19" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AX19" t="n">
-        <v>7.29</v>
+        <v>7.06</v>
       </c>
       <c r="AY19" t="n">
-        <v>0.93</v>
+        <v>0.86</v>
       </c>
       <c r="AZ19" t="n">
-        <v>1.06</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="20">
@@ -3609,82 +3609,82 @@
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr"/>
       <c r="AA20" t="n">
-        <v>2.57</v>
+        <v>2.75</v>
       </c>
       <c r="AB20" t="n">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AC20" t="n">
-        <v>3.75</v>
+        <v>2.94</v>
       </c>
       <c r="AD20" t="n">
-        <v>4.2</v>
+        <v>4.12</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.99</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.38</v>
+        <v>1.15</v>
       </c>
       <c r="AG20" t="n">
-        <v>2.83</v>
+        <v>3.78</v>
       </c>
       <c r="AH20" t="n">
-        <v>2.71</v>
+        <v>2.94</v>
       </c>
       <c r="AI20" t="n">
-        <v>3.76</v>
+        <v>3.4</v>
       </c>
       <c r="AJ20" t="n">
-        <v>11</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="AK20" t="n">
-        <v>5.45</v>
+        <v>6.18</v>
       </c>
       <c r="AL20" t="n">
-        <v>-1.47</v>
+        <v>-1.38</v>
       </c>
       <c r="AM20" t="n">
-        <v>3.45</v>
+        <v>3.39</v>
       </c>
       <c r="AN20" t="n">
-        <v>3.44</v>
+        <v>4.35</v>
       </c>
       <c r="AO20" t="n">
-        <v>0.24</v>
+        <v>0.36</v>
       </c>
       <c r="AP20" t="n">
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
       <c r="AQ20" t="n">
-        <v>0.76</v>
+        <v>0.66</v>
       </c>
       <c r="AR20" t="n">
-        <v>-0.26</v>
+        <v>-0.36</v>
       </c>
       <c r="AS20" t="n">
-        <v>-1.62</v>
+        <v>-1.64</v>
       </c>
       <c r="AT20" t="n">
-        <v>-0.63</v>
+        <v>-0.67</v>
       </c>
       <c r="AU20" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="AV20" t="n">
-        <v>2.96</v>
+        <v>3.1</v>
       </c>
       <c r="AW20" t="n">
-        <v>2.81</v>
+        <v>2.7</v>
       </c>
       <c r="AX20" t="n">
-        <v>14</v>
+        <v>10.65</v>
       </c>
       <c r="AY20" t="n">
-        <v>6.87</v>
+        <v>7.75</v>
       </c>
       <c r="AZ20" t="n">
-        <v>1.02</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="21">
@@ -3694,157 +3694,157 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>52.97</v>
+        <v>43.23</v>
       </c>
       <c r="C21" t="n">
-        <v>31.14</v>
+        <v>25.62</v>
       </c>
       <c r="D21" t="n">
-        <v>-10.33</v>
+        <v>-10.99</v>
       </c>
       <c r="E21" t="n">
-        <v>5.63</v>
+        <v>5.78</v>
       </c>
       <c r="F21" t="n">
-        <v>11.15</v>
+        <v>12.66</v>
       </c>
       <c r="G21" t="n">
-        <v>9.31</v>
+        <v>6.75</v>
       </c>
       <c r="H21" t="n">
-        <v>26.96</v>
+        <v>22.76</v>
       </c>
       <c r="I21" t="n">
-        <v>8.460000000000001</v>
+        <v>9.25</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.21</v>
+        <v>-0.17</v>
       </c>
       <c r="K21" t="n">
-        <v>2.01</v>
+        <v>1.9</v>
       </c>
       <c r="L21" t="n">
-        <v>3.52</v>
+        <v>3.33</v>
       </c>
       <c r="M21" t="n">
-        <v>2.36</v>
+        <v>2.18</v>
       </c>
       <c r="N21" t="n">
-        <v>3.04</v>
+        <v>3.54</v>
       </c>
       <c r="O21" t="n">
-        <v>1.49</v>
+        <v>1.56</v>
       </c>
       <c r="P21" t="n">
-        <v>2.75</v>
+        <v>3.08</v>
       </c>
       <c r="Q21" t="n">
-        <v>4.71</v>
+        <v>4.39</v>
       </c>
       <c r="R21" t="n">
-        <v>4.82</v>
+        <v>4.41</v>
       </c>
       <c r="S21" t="n">
-        <v>4.01</v>
+        <v>3.58</v>
       </c>
       <c r="T21" t="n">
-        <v>3.19</v>
+        <v>3.02</v>
       </c>
       <c r="U21" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="V21" t="n">
-        <v>1.12</v>
+        <v>1.21</v>
       </c>
       <c r="W21" t="n">
-        <v>1.99</v>
+        <v>1.96</v>
       </c>
       <c r="X21" t="n">
-        <v>3.69</v>
+        <v>4.83</v>
       </c>
       <c r="Y21" t="n">
-        <v>2.85</v>
+        <v>3.37</v>
       </c>
       <c r="Z21" t="n">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="AA21" t="n">
-        <v>1.24</v>
+        <v>1.19</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.96</v>
+        <v>1.31</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.9</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AD21" t="n">
-        <v>1.73</v>
+        <v>2.12</v>
       </c>
       <c r="AE21" t="n">
-        <v>2.27</v>
+        <v>2.26</v>
       </c>
       <c r="AF21" t="n">
-        <v>0.58</v>
+        <v>0.82</v>
       </c>
       <c r="AG21" t="n">
-        <v>1.43</v>
+        <v>1.1</v>
       </c>
       <c r="AH21" t="n">
-        <v>3.46</v>
+        <v>3.72</v>
       </c>
       <c r="AI21" t="n">
-        <v>2.95</v>
+        <v>3.1</v>
       </c>
       <c r="AJ21" t="n">
-        <v>5.94</v>
+        <v>5.87</v>
       </c>
       <c r="AK21" t="n">
-        <v>4.71</v>
+        <v>4.75</v>
       </c>
       <c r="AL21" t="n">
-        <v>2.24</v>
+        <v>2.64</v>
       </c>
       <c r="AM21" t="n">
-        <v>3.45</v>
+        <v>3.82</v>
       </c>
       <c r="AN21" t="n">
-        <v>3.07</v>
+        <v>3.93</v>
       </c>
       <c r="AO21" t="n">
-        <v>-1.72</v>
+        <v>-1.39</v>
       </c>
       <c r="AP21" t="n">
-        <v>-0.96</v>
+        <v>-0.83</v>
       </c>
       <c r="AQ21" t="n">
-        <v>3.5</v>
+        <v>3.79</v>
       </c>
       <c r="AR21" t="n">
-        <v>-0.36</v>
+        <v>-0.42</v>
       </c>
       <c r="AS21" t="n">
         <v>-0.1</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.48</v>
+        <v>0.38</v>
       </c>
       <c r="AU21" t="n">
-        <v>2.22</v>
+        <v>1.74</v>
       </c>
       <c r="AV21" t="n">
-        <v>3.07</v>
+        <v>2.98</v>
       </c>
       <c r="AW21" t="n">
-        <v>2.42</v>
+        <v>3.14</v>
       </c>
       <c r="AX21" t="n">
-        <v>9.880000000000001</v>
+        <v>10.18</v>
       </c>
       <c r="AY21" t="n">
-        <v>8.31</v>
+        <v>10.01</v>
       </c>
       <c r="AZ21" t="n">
-        <v>2.67</v>
+        <v>3.09</v>
       </c>
     </row>
     <row r="22">
@@ -3854,157 +3854,157 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>29.53</v>
+        <v>32.65</v>
       </c>
       <c r="C22" t="n">
-        <v>12.92</v>
+        <v>10.89</v>
       </c>
       <c r="D22" t="n">
-        <v>-2.56</v>
+        <v>-2.28</v>
       </c>
       <c r="E22" t="n">
         <v>1.61</v>
       </c>
       <c r="F22" t="n">
-        <v>9.640000000000001</v>
+        <v>8.98</v>
       </c>
       <c r="G22" t="n">
-        <v>8.109999999999999</v>
+        <v>11.61</v>
       </c>
       <c r="H22" t="n">
-        <v>12.3</v>
+        <v>12.26</v>
       </c>
       <c r="I22" t="n">
-        <v>11.11</v>
+        <v>10.13</v>
       </c>
       <c r="J22" t="n">
-        <v>4.95</v>
+        <v>5.49</v>
       </c>
       <c r="K22" t="n">
-        <v>3.55</v>
+        <v>3.11</v>
       </c>
       <c r="L22" t="n">
-        <v>3.61</v>
+        <v>4.14</v>
       </c>
       <c r="M22" t="n">
-        <v>3.87</v>
+        <v>3.14</v>
       </c>
       <c r="N22" t="n">
         <v>2.83</v>
       </c>
       <c r="O22" t="n">
-        <v>3.81</v>
+        <v>2.91</v>
       </c>
       <c r="P22" t="n">
-        <v>6.22</v>
+        <v>6.51</v>
       </c>
       <c r="Q22" t="n">
-        <v>8.67</v>
+        <v>7.91</v>
       </c>
       <c r="R22" t="n">
-        <v>5.2</v>
+        <v>6.6</v>
       </c>
       <c r="S22" t="n">
-        <v>3.45</v>
+        <v>3.92</v>
       </c>
       <c r="T22" t="n">
-        <v>4.15</v>
+        <v>3.69</v>
       </c>
       <c r="U22" t="n">
-        <v>2.96</v>
+        <v>2.79</v>
       </c>
       <c r="V22" t="n">
-        <v>4.15</v>
+        <v>4.2</v>
       </c>
       <c r="W22" t="n">
-        <v>2.8</v>
+        <v>2.47</v>
       </c>
       <c r="X22" t="n">
-        <v>3.32</v>
+        <v>4.37</v>
       </c>
       <c r="Y22" t="n">
-        <v>2.11</v>
+        <v>2.19</v>
       </c>
       <c r="Z22" t="n">
-        <v>2.14</v>
+        <v>1.86</v>
       </c>
       <c r="AA22" t="n">
-        <v>2.27</v>
+        <v>2.61</v>
       </c>
       <c r="AB22" t="n">
-        <v>1.61</v>
+        <v>1.77</v>
       </c>
       <c r="AC22" t="n">
-        <v>2.91</v>
+        <v>2.45</v>
       </c>
       <c r="AD22" t="n">
-        <v>2.37</v>
+        <v>1.94</v>
       </c>
       <c r="AE22" t="n">
-        <v>2.44</v>
+        <v>2.73</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.42</v>
+        <v>1.57</v>
       </c>
       <c r="AG22" t="n">
-        <v>1.23</v>
+        <v>1.38</v>
       </c>
       <c r="AH22" t="n">
-        <v>2.08</v>
+        <v>1.69</v>
       </c>
       <c r="AI22" t="n">
-        <v>4.86</v>
+        <v>4.39</v>
       </c>
       <c r="AJ22" t="n">
-        <v>8.949999999999999</v>
+        <v>10.11</v>
       </c>
       <c r="AK22" t="n">
-        <v>2.66</v>
+        <v>2.63</v>
       </c>
       <c r="AL22" t="n">
-        <v>-0.86</v>
+        <v>-0.8100000000000001</v>
       </c>
       <c r="AM22" t="n">
-        <v>4.41</v>
+        <v>4.36</v>
       </c>
       <c r="AN22" t="n">
-        <v>3.33</v>
+        <v>2.98</v>
       </c>
       <c r="AO22" t="n">
-        <v>0.86</v>
+        <v>1.19</v>
       </c>
       <c r="AP22" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="AR22" t="n">
-        <v>-0.25</v>
+        <v>-0.31</v>
       </c>
       <c r="AS22" t="n">
-        <v>-0.59</v>
+        <v>-0.43</v>
       </c>
       <c r="AT22" t="n">
-        <v>0.43</v>
+        <v>0.47</v>
       </c>
       <c r="AU22" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AV22" t="n">
-        <v>2.22</v>
+        <v>2.4</v>
       </c>
       <c r="AW22" t="n">
-        <v>1.93</v>
+        <v>1.99</v>
       </c>
       <c r="AX22" t="n">
-        <v>10.45</v>
+        <v>14.4</v>
       </c>
       <c r="AY22" t="n">
-        <v>7.88</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="AZ22" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="23">
@@ -4014,88 +4014,88 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>19.59</v>
+        <v>20.51</v>
       </c>
       <c r="C23" t="n">
-        <v>16.14</v>
+        <v>13.74</v>
       </c>
       <c r="D23" t="n">
-        <v>23.02</v>
+        <v>19.18</v>
       </c>
       <c r="E23" t="n">
-        <v>51.17</v>
+        <v>58.18</v>
       </c>
       <c r="F23" t="n">
-        <v>5.06</v>
+        <v>6.53</v>
       </c>
       <c r="G23" t="n">
-        <v>5.31</v>
+        <v>5.27</v>
       </c>
       <c r="H23" t="n">
-        <v>9.619999999999999</v>
+        <v>11.15</v>
       </c>
       <c r="I23" t="n">
-        <v>4.8</v>
+        <v>4.82</v>
       </c>
       <c r="J23" t="n">
-        <v>2.19</v>
+        <v>2.38</v>
       </c>
       <c r="K23" t="n">
-        <v>1.6</v>
+        <v>2.22</v>
       </c>
       <c r="L23" t="n">
-        <v>2.7</v>
+        <v>2.83</v>
       </c>
       <c r="M23" t="n">
-        <v>2.18</v>
+        <v>1.79</v>
       </c>
       <c r="N23" t="n">
-        <v>6.25</v>
+        <v>6.83</v>
       </c>
       <c r="O23" t="n">
-        <v>-2.2</v>
+        <v>-2.49</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>3.77</v>
+        <v>2.9</v>
       </c>
       <c r="R23" t="n">
-        <v>1.61</v>
+        <v>2.2</v>
       </c>
       <c r="S23" t="n">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="T23" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="V23" t="n">
-        <v>8.550000000000001</v>
+        <v>7.48</v>
       </c>
       <c r="W23" t="n">
-        <v>5.81</v>
+        <v>5.98</v>
       </c>
       <c r="X23" t="n">
-        <v>-2.15</v>
+        <v>-2.74</v>
       </c>
       <c r="Y23" t="n">
-        <v>3.76</v>
+        <v>4.34</v>
       </c>
       <c r="Z23" t="n">
-        <v>-0.25</v>
+        <v>-0.33</v>
       </c>
       <c r="AA23" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="AB23" t="n">
-        <v>2.97</v>
+        <v>2.92</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.83</v>
+        <v>0.9</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -4104,67 +4104,67 @@
         <v>0.35</v>
       </c>
       <c r="AF23" t="n">
-        <v>0.43</v>
+        <v>0.35</v>
       </c>
       <c r="AG23" t="n">
-        <v>2.28</v>
+        <v>2.82</v>
       </c>
       <c r="AH23" t="n">
-        <v>1.97</v>
+        <v>2.18</v>
       </c>
       <c r="AI23" t="n">
-        <v>3.46</v>
+        <v>4.07</v>
       </c>
       <c r="AJ23" t="n">
-        <v>4.6</v>
+        <v>4.11</v>
       </c>
       <c r="AK23" t="n">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="AL23" t="n">
-        <v>-0.87</v>
+        <v>-0.86</v>
       </c>
       <c r="AM23" t="n">
-        <v>3.52</v>
+        <v>2.86</v>
       </c>
       <c r="AN23" t="n">
-        <v>1.17</v>
+        <v>0.99</v>
       </c>
       <c r="AO23" t="n">
-        <v>-0.95</v>
+        <v>-1.04</v>
       </c>
       <c r="AP23" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AR23" t="n">
         <v>-0.46</v>
       </c>
-      <c r="AQ23" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AR23" t="n">
-        <v>-0.33</v>
-      </c>
       <c r="AS23" t="n">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="AT23" t="n">
         <v>0</v>
       </c>
       <c r="AU23" t="n">
-        <v>1.94</v>
+        <v>2.16</v>
       </c>
       <c r="AV23" t="n">
-        <v>3.65</v>
+        <v>3.17</v>
       </c>
       <c r="AW23" t="n">
-        <v>2.52</v>
+        <v>3.22</v>
       </c>
       <c r="AX23" t="n">
-        <v>11.89</v>
+        <v>10.27</v>
       </c>
       <c r="AY23" t="n">
-        <v>7</v>
+        <v>6.97</v>
       </c>
       <c r="AZ23" t="n">
-        <v>2.29</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="24">
@@ -4174,157 +4174,157 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>21.02</v>
+        <v>22.57</v>
       </c>
       <c r="C24" t="n">
-        <v>13.32</v>
+        <v>13.49</v>
       </c>
       <c r="D24" t="n">
-        <v>4.66</v>
+        <v>4.46</v>
       </c>
       <c r="E24" t="n">
-        <v>2.78</v>
+        <v>3.46</v>
       </c>
       <c r="F24" t="n">
-        <v>6.93</v>
+        <v>9.15</v>
       </c>
       <c r="G24" t="n">
-        <v>10.1</v>
+        <v>11.13</v>
       </c>
       <c r="H24" t="n">
-        <v>10.36</v>
+        <v>12.82</v>
       </c>
       <c r="I24" t="n">
-        <v>8.970000000000001</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="J24" t="n">
-        <v>5.22</v>
+        <v>4.24</v>
       </c>
       <c r="K24" t="n">
-        <v>3.56</v>
+        <v>2.81</v>
       </c>
       <c r="L24" t="n">
-        <v>2.45</v>
+        <v>3.16</v>
       </c>
       <c r="M24" t="n">
-        <v>3.82</v>
+        <v>3.26</v>
       </c>
       <c r="N24" t="n">
-        <v>2.25</v>
+        <v>2.32</v>
       </c>
       <c r="O24" t="n">
-        <v>3.63</v>
+        <v>3.61</v>
       </c>
       <c r="P24" t="n">
-        <v>3.89</v>
+        <v>3.31</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.4</v>
+        <v>7.1</v>
       </c>
       <c r="R24" t="n">
-        <v>5.24</v>
+        <v>4.16</v>
       </c>
       <c r="S24" t="n">
-        <v>5.33</v>
+        <v>4.9</v>
       </c>
       <c r="T24" t="n">
         <v>2.13</v>
       </c>
       <c r="U24" t="n">
-        <v>2.28</v>
+        <v>2.14</v>
       </c>
       <c r="V24" t="n">
-        <v>2.73</v>
+        <v>2.23</v>
       </c>
       <c r="W24" t="n">
-        <v>2.63</v>
+        <v>2.29</v>
       </c>
       <c r="X24" t="n">
-        <v>3.45</v>
+        <v>3.34</v>
       </c>
       <c r="Y24" t="n">
         <v>3.82</v>
       </c>
       <c r="Z24" t="n">
-        <v>2.82</v>
+        <v>3.01</v>
       </c>
       <c r="AA24" t="n">
-        <v>1.75</v>
+        <v>2.47</v>
       </c>
       <c r="AB24" t="n">
-        <v>1.68</v>
+        <v>2.22</v>
       </c>
       <c r="AC24" t="n">
         <v>1.86</v>
       </c>
       <c r="AD24" t="n">
-        <v>0.53</v>
+        <v>0.59</v>
       </c>
       <c r="AE24" t="n">
-        <v>1.05</v>
+        <v>0.9</v>
       </c>
       <c r="AF24" t="n">
-        <v>0.44</v>
+        <v>0.54</v>
       </c>
       <c r="AG24" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="AH24" t="n">
-        <v>1.24</v>
+        <v>1.46</v>
       </c>
       <c r="AI24" t="n">
-        <v>1.97</v>
+        <v>1.91</v>
       </c>
       <c r="AJ24" t="n">
-        <v>4.35</v>
+        <v>6.23</v>
       </c>
       <c r="AK24" t="n">
-        <v>4.29</v>
+        <v>3.79</v>
       </c>
       <c r="AL24" t="n">
-        <v>-0.57</v>
+        <v>-0.5</v>
       </c>
       <c r="AM24" t="n">
-        <v>2.17</v>
+        <v>2.14</v>
       </c>
       <c r="AN24" t="n">
-        <v>3.01</v>
+        <v>3.08</v>
       </c>
       <c r="AO24" t="n">
-        <v>0.57</v>
+        <v>0.4</v>
       </c>
       <c r="AP24" t="n">
-        <v>0.87</v>
+        <v>0.82</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.63</v>
+        <v>1.75</v>
       </c>
       <c r="AR24" t="n">
-        <v>0.28</v>
+        <v>0.35</v>
       </c>
       <c r="AS24" t="n">
         <v>0.11</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="AU24" t="n">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AV24" t="n">
-        <v>3.27</v>
+        <v>3.17</v>
       </c>
       <c r="AW24" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="AX24" t="n">
-        <v>13.96</v>
+        <v>15.18</v>
       </c>
       <c r="AY24" t="n">
-        <v>6.42</v>
+        <v>5.39</v>
       </c>
       <c r="AZ24" t="n">
-        <v>0.66</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="25">
